--- a/data/hotels_by_city/Denver/Denver_shard_90.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_90.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d119948-Reviews-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Fairfield-Inn-Suites-By-Marriott-Denver-Downtown.h1171655.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1161 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r594723274-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>119948</t>
+  </si>
+  <si>
+    <t>594723274</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>My family enjoyed this hotel. Very friendly staff that make you feel at home. The suites are nice. “Mother Goose” drives the shuttle. She will take you downtown every hour on the hour at no charge. We will return in the future. Relaxing retreat.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r593864437-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593864437</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This Hotel is in a good location, near Downtown Denver, but on the other side of the Highway. Beautiful older Neighborhood nearby, perfect for a nice, interesting walk. Rooms are larger, and have lots of nice light. Gym is perfectly adequate. Breakfast is really good, and free each morning. Parking directly below the Hotel, but on this trip I parked on the street for free. Only complaint is the last 2 times I've been there they've been having elevator issues, which is a hassle, to say the least. They did give me some extra points for the inconvenience, but the smallest amount I've ever been given. Staff is Friendly &amp; helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This Hotel is in a good location, near Downtown Denver, but on the other side of the Highway. Beautiful older Neighborhood nearby, perfect for a nice, interesting walk. Rooms are larger, and have lots of nice light. Gym is perfectly adequate. Breakfast is really good, and free each morning. Parking directly below the Hotel, but on this trip I parked on the street for free. Only complaint is the last 2 times I've been there they've been having elevator issues, which is a hassle, to say the least. They did give me some extra points for the inconvenience, but the smallest amount I've ever been given. Staff is Friendly &amp; helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r593411546-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593411546</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>" Close to Downtown "</t>
+  </si>
+  <si>
+    <t>This Marriott is a year new super clean and close to the downtown area. The rooms are large offer mini fridge's, microwave and coffee pot and for the business traveler a small desk area And, offers free breakfast. There is an onsite parking garage at $12. Per night or free street parking if you can find it due to the residential community surrounding this property. This hotel is also NOT convenient unless you have a car or uber as there are no food or shopping in close proximity.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r578744034-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578744034</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>This is an excellent property.  Everything is new and fresh.  Rooms are quiet, hallways spacious, and the lobby attractive. The only suggestion would be to provide clearer instruction of where to park during check-in.  Nothing is marked in the garage or on the street. Breakfast was simple but acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>This is an excellent property.  Everything is new and fresh.  Rooms are quiet, hallways spacious, and the lobby attractive. The only suggestion would be to provide clearer instruction of where to park during check-in.  Nothing is marked in the garage or on the street. Breakfast was simple but acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r577426701-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577426701</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Weekend Getaway to Downtown</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel we are Marriott reward members and it was our first time staying at a Fairfield Inn and Suites. We were incredibly surprised and impressed on how the hotel staff ran the hotel, clean clean and very organized. Very welcoming and the rooms modern and spacious for a 1 bed room...ok so I just wanted to share what made it extra special, I had booked it a few days in advance to get away for the weekend with my wife it was her birthday and one hotel staff member named Karin (shout out to her and those i didn't know of that also helped) they went above and beyond preparing a beautiful happy birthday note and went the extra mile to set up our room in a way that we never expected. It was an awesome surprise Thank you Karin we look forward to staying here again for weekends or trips and if we get to travel more it will be to a Fairfield inn and suites only...I recommend this hotel it has awesome Downtown views and breakfast is also hot and really good.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel we are Marriott reward members and it was our first time staying at a Fairfield Inn and Suites. We were incredibly surprised and impressed on how the hotel staff ran the hotel, clean clean and very organized. Very welcoming and the rooms modern and spacious for a 1 bed room...ok so I just wanted to share what made it extra special, I had booked it a few days in advance to get away for the weekend with my wife it was her birthday and one hotel staff member named Karin (shout out to her and those i didn't know of that also helped) they went above and beyond preparing a beautiful happy birthday note and went the extra mile to set up our room in a way that we never expected. It was an awesome surprise Thank you Karin we look forward to staying here again for weekends or trips and if we get to travel more it will be to a Fairfield inn and suites only...I recommend this hotel it has awesome Downtown views and breakfast is also hot and really good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r567753023-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567753023</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>We have stayed in hotels all over the world and we have stayed at plenty in denver my wife snd i enjoyed our stay at this hotel close to downtown staff was always friendly and helpful very clean the lady for the breakfast kept it clean snd full at all times between lower cost for overnight parking and free breakfast good value MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>We have stayed in hotels all over the world and we have stayed at plenty in denver my wife snd i enjoyed our stay at this hotel close to downtown staff was always friendly and helpful very clean the lady for the breakfast kept it clean snd full at all times between lower cost for overnight parking and free breakfast good value More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r556688127-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>556688127</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This is a really nice Fairfield Inn.  The room was small which is expected in a downtown setting.  Although the room was a bit small, it was arranged nicely and very well kept.  Close to downtown and convention center, about a $8 Uber ride is all.  There are some restaurants within walking distance as well.  Friendly staff, and nice city view.  I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>This is a really nice Fairfield Inn.  The room was small which is expected in a downtown setting.  Although the room was a bit small, it was arranged nicely and very well kept.  Close to downtown and convention center, about a $8 Uber ride is all.  There are some restaurants within walking distance as well.  Friendly staff, and nice city view.  I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r554247164-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>554247164</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location, lovely hotel </t>
+  </si>
+  <si>
+    <t>This was a lovely hotel with easy parking in a good location. You could walk into the downtown area from here but we got an Uber for about $10 and that took us down to the Capitol building. We walked around the entire downtown area from there. The room was large and comfortable, the continental breakfast was nice and fresh. The staff were friendly. If you’re driving into Denver I’d certainly recommend this hotel as easy to access and comfortable to stay at. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a lovely hotel with easy parking in a good location. You could walk into the downtown area from here but we got an Uber for about $10 and that took us down to the Capitol building. We walked around the entire downtown area from there. The room was large and comfortable, the continental breakfast was nice and fresh. The staff were friendly. If you’re driving into Denver I’d certainly recommend this hotel as easy to access and comfortable to stay at. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r550902892-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>550902892</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel Close to Downtown</t>
+  </si>
+  <si>
+    <t>We stayed here on New Years so we didn’t have to drive home. The hotel staff was extremely nice, the price was great compared to the hotels directly downtown, and it was very clean.  It’s only a 5 minute car ride to all of the action downtown and on the 16th Street Mall. Definitely worth checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here on New Years so we didn’t have to drive home. The hotel staff was extremely nice, the price was great compared to the hotels directly downtown, and it was very clean.  It’s only a 5 minute car ride to all of the action downtown and on the 16th Street Mall. Definitely worth checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r544499144-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544499144</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t>This is a great location and so close to downtown — 15 minute walk.  Brand new, rooms are spotless and quiet.  The elevators are terrible — noisy doors.  It is actually painful riding on them.  Otherwise, 5 stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>This is a great location and so close to downtown — 15 minute walk.  Brand new, rooms are spotless and quiet.  The elevators are terrible — noisy doors.  It is actually painful riding on them.  Otherwise, 5 stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r541282540-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541282540</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Clean &amp; Fresh</t>
+  </si>
+  <si>
+    <t>Front desk staff was friendly &amp; helpful.  Room was clean and fresh looking.  Continental breakfast was more than adequate with hot food.  Breakfast eating area was clean.  Excellent view of the city from the breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk staff was friendly &amp; helpful.  Room was clean and fresh looking.  Continental breakfast was more than adequate with hot food.  Breakfast eating area was clean.  Excellent view of the city from the breakfast area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r535748400-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>535748400</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location with great staff people.All of their employees were kind, gracious and professional.Hotel property was very clean and the rooms a very nice size.All the amenities you could want were at this hotel.Will definitely stay at this hotel again next time I am in the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location with great staff people.All of their employees were kind, gracious and professional.Hotel property was very clean and the rooms a very nice size.All the amenities you could want were at this hotel.Will definitely stay at this hotel again next time I am in the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r532072159-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532072159</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Great location, great view of downtown from lobby.  The staff was more than accommodating to all the wedding guests staying  here.  They stowed away coolers, gifts, and other things for the wedding and put up with a lobby full of wedding guests after the reception, even all the noise!  Clean, friendly staff.  Would recommend this hotel to any Denver visitors.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Great location, great view of downtown from lobby.  The staff was more than accommodating to all the wedding guests staying  here.  They stowed away coolers, gifts, and other things for the wedding and put up with a lobby full of wedding guests after the reception, even all the noise!  Clean, friendly staff.  Would recommend this hotel to any Denver visitors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r531544479-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>531544479</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Clean, Great Location, Good Breakfast</t>
+  </si>
+  <si>
+    <t>- Rooms were clean and had adequate space. Enjoyed the coffee maker in the room as well as having a small fridge.- Location was great as we were going to a concert at Pepsi Centre and it was in walking distance. It was also very close to the freeway for easy access for traveling.- Free breakfast had good options, hot food and was well stocked.- Disappointed there was no restaurant on site or in near walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>- Rooms were clean and had adequate space. Enjoyed the coffee maker in the room as well as having a small fridge.- Location was great as we were going to a concert at Pepsi Centre and it was in walking distance. It was also very close to the freeway for easy access for traveling.- Free breakfast had good options, hot food and was well stocked.- Disappointed there was no restaurant on site or in near walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r523119496-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>523119496</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Nice clean new hotel - Excellent Staff</t>
+  </si>
+  <si>
+    <t>Nice roomy clean rooms.  New hotel so all is up to snuff.  Lobby on 2nd floor above parking.  Breakfast good.  Staff friendly and efficient.  Close to stadium and only 1.8 miles from convention center.  Beware no restaurants very close to the hotel.  closest is approximately 1/4 mile away uphill or the convenience marts at the gas stations on the corner.My only complaint is the $12.00/night fee for parking but there is plenty of street parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Nice roomy clean rooms.  New hotel so all is up to snuff.  Lobby on 2nd floor above parking.  Breakfast good.  Staff friendly and efficient.  Close to stadium and only 1.8 miles from convention center.  Beware no restaurants very close to the hotel.  closest is approximately 1/4 mile away uphill or the convenience marts at the gas stations on the corner.My only complaint is the $12.00/night fee for parking but there is plenty of street parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r517152022-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>517152022</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome staff, excellent location.</t>
+  </si>
+  <si>
+    <t>Excellent location in LoHi, great views, and access to LoDo. Travan was so helpful and sweet! Jasmine was also a great asset to the hotel. Walking distance to so many excellent restaurants and super-cool bars with rooftop seating. I would recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Excellent location in LoHi, great views, and access to LoDo. Travan was so helpful and sweet! Jasmine was also a great asset to the hotel. Walking distance to so many excellent restaurants and super-cool bars with rooftop seating. I would recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r516694205-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>516694205</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a convenient location</t>
+  </si>
+  <si>
+    <t>We stayed here recently on a trip to Colorado and spent a night when doing some sightseeing in Denver.  The hotel location is just across the bridge but not really walkable so we drove into Denver.Parking in Denver was never a problem and very inexpensive at meters so it was easy.The hotel itself is new and very modern and clean. We stayed at different hotels on our trip the Colorado and this was definitely the nicest.  It is very upscale and I would definitely recommend.The breakfast was very nice and we also had a great view of the city and Mile High stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here recently on a trip to Colorado and spent a night when doing some sightseeing in Denver.  The hotel location is just across the bridge but not really walkable so we drove into Denver.Parking in Denver was never a problem and very inexpensive at meters so it was easy.The hotel itself is new and very modern and clean. We stayed at different hotels on our trip the Colorado and this was definitely the nicest.  It is very upscale and I would definitely recommend.The breakfast was very nice and we also had a great view of the city and Mile High stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r513924756-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>513924756</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Brand new hotel with awesome staff</t>
+  </si>
+  <si>
+    <t>This hotel is less than a year old.  We stayed here while attending a Rockies game and loved the hotel and staff.  Room was spacious and modern, breakfast was excellent and well-stocked, and staff were extremely friendly and helpful.  The REI flagship store is a short walk or drive (you can see it from the lobby) and the valet recommended a great restaurant in the neighborhood a short 10-minute walk from the hotel.  Laundry facilities on the lobby floor.  Only negative was the indoor pool was a little cool and there was no hottub.  Otherwise, this was a perfect location for exploring the city and we'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is less than a year old.  We stayed here while attending a Rockies game and loved the hotel and staff.  Room was spacious and modern, breakfast was excellent and well-stocked, and staff were extremely friendly and helpful.  The REI flagship store is a short walk or drive (you can see it from the lobby) and the valet recommended a great restaurant in the neighborhood a short 10-minute walk from the hotel.  Laundry facilities on the lobby floor.  Only negative was the indoor pool was a little cool and there was no hottub.  Otherwise, this was a perfect location for exploring the city and we'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r509762994-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509762994</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Young, Bright, Shining Star</t>
+  </si>
+  <si>
+    <t>The front desk staff are always friendly and accommodating, especially a gentleman named Travon.  He is very upbeat and always willing to assist with basic needs.  He always has a smile on his face and he remembers the guest's names which makes us feel special.  He goes above and beyond of the call of duty.  Kudos to Travon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>The front desk staff are always friendly and accommodating, especially a gentleman named Travon.  He is very upbeat and always willing to assist with basic needs.  He always has a smile on his face and he remembers the guest's names which makes us feel special.  He goes above and beyond of the call of duty.  Kudos to Travon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r509684404-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509684404</t>
+  </si>
+  <si>
+    <t>Weekend anniversary get-away</t>
+  </si>
+  <si>
+    <t>The location of this hotel is great. From here, it's an easy Uber ride to a lot of places. The highlight of this hotel was Travon-he works at the front desk, but he was more like a host of the get-together that was going on at this hotel. He goes above and beyond--not just for us, but we saw him doing this for other people, as well.  He seemed like an old friend every time we saw him.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of this hotel is great. From here, it's an easy Uber ride to a lot of places. The highlight of this hotel was Travon-he works at the front desk, but he was more like a host of the get-together that was going on at this hotel. He goes above and beyond--not just for us, but we saw him doing this for other people, as well.  He seemed like an old friend every time we saw him.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r508904088-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>508904088</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn for 2 nights during our trip through Denver.  The best aspect of the hotel is the staff from Jasmine at the Front Desk to the parking lot attendant and the members of hospitality.  We requested a suite with 2 queens and pullout as there are 4 of us in the family.  The hotel doesn't have 2 queens suites, but upgraded us to a king suite with pullout couch.  Jasmine provided us with a "Bed in a Bag" for our youngest one and we were able to make her a bed on the floor.  It was adequate.  The rooms are fairly small and we found ourselves stepping over and around one another, but made do.  The hotel is only 2 miles from downtown and we chose to drive to a few destinations like Coors Field and the 16th St. outdoor mall.  
+The gentleman who greeted us in the garage had a lot of great recommendations for local eateries within walking distance and even gave us a coupon for a tap room and burger joint which was excellent.  
+We have a big truck an parking in the garage is a PITA.  There i a small fee for parking and on our second night had to park on the street behind the hotel.  The front desk staff waived the fee for that night.
+Bathroom was clean, and the shower is huge.  The pool was small, but adequate...We stayed at the Fairfield Inn for 2 nights during our trip through Denver.  The best aspect of the hotel is the staff from Jasmine at the Front Desk to the parking lot attendant and the members of hospitality.  We requested a suite with 2 queens and pullout as there are 4 of us in the family.  The hotel doesn't have 2 queens suites, but upgraded us to a king suite with pullout couch.  Jasmine provided us with a "Bed in a Bag" for our youngest one and we were able to make her a bed on the floor.  It was adequate.  The rooms are fairly small and we found ourselves stepping over and around one another, but made do.  The hotel is only 2 miles from downtown and we chose to drive to a few destinations like Coors Field and the 16th St. outdoor mall.  The gentleman who greeted us in the garage had a lot of great recommendations for local eateries within walking distance and even gave us a coupon for a tap room and burger joint which was excellent.  We have a big truck an parking in the garage is a PITA.  There i a small fee for parking and on our second night had to park on the street behind the hotel.  The front desk staff waived the fee for that night.Bathroom was clean, and the shower is huge.  The pool was small, but adequate for the 8 year old.  Standard breakfast fare offered each morning is included.  I would have preferred staying downtown as it would have allowed us to walk everywhere, but this was sufficient for our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn for 2 nights during our trip through Denver.  The best aspect of the hotel is the staff from Jasmine at the Front Desk to the parking lot attendant and the members of hospitality.  We requested a suite with 2 queens and pullout as there are 4 of us in the family.  The hotel doesn't have 2 queens suites, but upgraded us to a king suite with pullout couch.  Jasmine provided us with a "Bed in a Bag" for our youngest one and we were able to make her a bed on the floor.  It was adequate.  The rooms are fairly small and we found ourselves stepping over and around one another, but made do.  The hotel is only 2 miles from downtown and we chose to drive to a few destinations like Coors Field and the 16th St. outdoor mall.  
+The gentleman who greeted us in the garage had a lot of great recommendations for local eateries within walking distance and even gave us a coupon for a tap room and burger joint which was excellent.  
+We have a big truck an parking in the garage is a PITA.  There i a small fee for parking and on our second night had to park on the street behind the hotel.  The front desk staff waived the fee for that night.
+Bathroom was clean, and the shower is huge.  The pool was small, but adequate...We stayed at the Fairfield Inn for 2 nights during our trip through Denver.  The best aspect of the hotel is the staff from Jasmine at the Front Desk to the parking lot attendant and the members of hospitality.  We requested a suite with 2 queens and pullout as there are 4 of us in the family.  The hotel doesn't have 2 queens suites, but upgraded us to a king suite with pullout couch.  Jasmine provided us with a "Bed in a Bag" for our youngest one and we were able to make her a bed on the floor.  It was adequate.  The rooms are fairly small and we found ourselves stepping over and around one another, but made do.  The hotel is only 2 miles from downtown and we chose to drive to a few destinations like Coors Field and the 16th St. outdoor mall.  The gentleman who greeted us in the garage had a lot of great recommendations for local eateries within walking distance and even gave us a coupon for a tap room and burger joint which was excellent.  We have a big truck an parking in the garage is a PITA.  There i a small fee for parking and on our second night had to park on the street behind the hotel.  The front desk staff waived the fee for that night.Bathroom was clean, and the shower is huge.  The pool was small, but adequate for the 8 year old.  Standard breakfast fare offered each morning is included.  I would have preferred staying downtown as it would have allowed us to walk everywhere, but this was sufficient for our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r503248770-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>503248770</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Disinterested and nasty management</t>
+  </si>
+  <si>
+    <t>When we arrived to the hotel I always try to be as pleasant as can be since I am sure it's not easy working with new quests every day.  I had a lovely host, Jasmine, who checked me and helped me acquire another room for my kids who unexpectedly needed a place to stay the following night.  I had ordered a port a crib for my grandchild and when we arrived it wasn't in the room but since it was late I suggested they bring it tomorrow when my grandchild will be arriving. In the morning the port a crib arrived and by night time it was gone.  When we noticed we had no port a crib the person on duty was Michael.  He seemed to be concerned and told me he was going to look around and he probably did but when I came downstairs he was sitting with a friend on the side having dinner. After a lot of back and forth and sort of apathy on his part he suggested I call the manager.  She was rude, unhelpful and couldn't be bothered. Thank goodness we had access to Target and was able to buy a port a crib.  It's one thing not to have enough port a cribs since it's never guaranteed, it's another thing to take it out of my room and act totally ignorant. This definitely tainted our stay there because of the management handling...When we arrived to the hotel I always try to be as pleasant as can be since I am sure it's not easy working with new quests every day.  I had a lovely host, Jasmine, who checked me and helped me acquire another room for my kids who unexpectedly needed a place to stay the following night.  I had ordered a port a crib for my grandchild and when we arrived it wasn't in the room but since it was late I suggested they bring it tomorrow when my grandchild will be arriving. In the morning the port a crib arrived and by night time it was gone.  When we noticed we had no port a crib the person on duty was Michael.  He seemed to be concerned and told me he was going to look around and he probably did but when I came downstairs he was sitting with a friend on the side having dinner. After a lot of back and forth and sort of apathy on his part he suggested I call the manager.  She was rude, unhelpful and couldn't be bothered. Thank goodness we had access to Target and was able to buy a port a crib.  It's one thing not to have enough port a cribs since it's never guaranteed, it's another thing to take it out of my room and act totally ignorant. This definitely tainted our stay there because of the management handling of the situation.  On top of that their beds sag and i was always rolling to the middle. I could have handled that if the hotel wasn't so rude.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived to the hotel I always try to be as pleasant as can be since I am sure it's not easy working with new quests every day.  I had a lovely host, Jasmine, who checked me and helped me acquire another room for my kids who unexpectedly needed a place to stay the following night.  I had ordered a port a crib for my grandchild and when we arrived it wasn't in the room but since it was late I suggested they bring it tomorrow when my grandchild will be arriving. In the morning the port a crib arrived and by night time it was gone.  When we noticed we had no port a crib the person on duty was Michael.  He seemed to be concerned and told me he was going to look around and he probably did but when I came downstairs he was sitting with a friend on the side having dinner. After a lot of back and forth and sort of apathy on his part he suggested I call the manager.  She was rude, unhelpful and couldn't be bothered. Thank goodness we had access to Target and was able to buy a port a crib.  It's one thing not to have enough port a cribs since it's never guaranteed, it's another thing to take it out of my room and act totally ignorant. This definitely tainted our stay there because of the management handling...When we arrived to the hotel I always try to be as pleasant as can be since I am sure it's not easy working with new quests every day.  I had a lovely host, Jasmine, who checked me and helped me acquire another room for my kids who unexpectedly needed a place to stay the following night.  I had ordered a port a crib for my grandchild and when we arrived it wasn't in the room but since it was late I suggested they bring it tomorrow when my grandchild will be arriving. In the morning the port a crib arrived and by night time it was gone.  When we noticed we had no port a crib the person on duty was Michael.  He seemed to be concerned and told me he was going to look around and he probably did but when I came downstairs he was sitting with a friend on the side having dinner. After a lot of back and forth and sort of apathy on his part he suggested I call the manager.  She was rude, unhelpful and couldn't be bothered. Thank goodness we had access to Target and was able to buy a port a crib.  It's one thing not to have enough port a cribs since it's never guaranteed, it's another thing to take it out of my room and act totally ignorant. This definitely tainted our stay there because of the management handling of the situation.  On top of that their beds sag and i was always rolling to the middle. I could have handled that if the hotel wasn't so rude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r501774498-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>501774498</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!</t>
+  </si>
+  <si>
+    <t>I spent four nights at the Fairfield Inn &amp; Suites while attending a conference and had a wonderful stay. From the very first night I was greeted by Travon with a big smile. Whether it was morning, afternoon, or night Travon, Jasman, or other staff were there to say hello, ask if I was doing okay, or to answer any questions. The room was very nice, new, and clean. Breakfast was served every morning and it was not too bad. There was a selection of coffee, tea, hot chocolate, fruit, cereal, eggs, bacon, bagels, etc. There was also a sign stating they could accommodate a gluten free diet. There are some nice restaurants within walking distance, less than a mile away. Overall, I would recommend staying here. Fairfield Inn &amp; Suites will not disappoint, especially with Travon and Jasman there to greet you!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>I spent four nights at the Fairfield Inn &amp; Suites while attending a conference and had a wonderful stay. From the very first night I was greeted by Travon with a big smile. Whether it was morning, afternoon, or night Travon, Jasman, or other staff were there to say hello, ask if I was doing okay, or to answer any questions. The room was very nice, new, and clean. Breakfast was served every morning and it was not too bad. There was a selection of coffee, tea, hot chocolate, fruit, cereal, eggs, bacon, bagels, etc. There was also a sign stating they could accommodate a gluten free diet. There are some nice restaurants within walking distance, less than a mile away. Overall, I would recommend staying here. Fairfield Inn &amp; Suites will not disappoint, especially with Travon and Jasman there to greet you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r501457091-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>501457091</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable, Quick One Night Stay</t>
+  </si>
+  <si>
+    <t>Very new and clean hotel, located in a great location near downtown Denver. Travon and the front desk staff were very accommodating and helpful with questions we had about the area and nearby transportation. Thanks for an enjoyablevisit!Ashley and BrianMoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Very new and clean hotel, located in a great location near downtown Denver. Travon and the front desk staff were very accommodating and helpful with questions we had about the area and nearby transportation. Thanks for an enjoyablevisit!Ashley and BrianMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r498078675-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498078675</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John &amp; Bev Nelson </t>
+  </si>
+  <si>
+    <t>We love staying here. The staff is wonderful and very pleasant and helpful. It is a top notch hotel. Our home away from home in Denver where our daughter and family live. Trey, Anna and Maya are super! MoreShow less</t>
+  </si>
+  <si>
+    <t>We love staying here. The staff is wonderful and very pleasant and helpful. It is a top notch hotel. Our home away from home in Denver where our daughter and family live. Trey, Anna and Maya are super! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r492833993-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>492833993</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>This new hotel was perfect in every way, but Trayvon at the front desk exceeded everything else. Helpful, funny, ready to meet all guest needs, going the extra mile. Made a wonderful restaurant recommendation. Thanks for all the help, Trayvon!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel was perfect in every way, but Trayvon at the front desk exceeded everything else. Helpful, funny, ready to meet all guest needs, going the extra mile. Made a wonderful restaurant recommendation. Thanks for all the help, Trayvon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r490344301-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>490344301</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>quick but great stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights.  The hotel was very clean, our room was spacious, and the breakfast was excellent.  The hotel is right next to several major highways, so we had no problem getting around with our rental car.  Would stay here again if we needed a hotel in downtown Denver. Did have to pay $12/night to park in garage, which does not have many spaces for the size of the hotel.  It would be helpful for the hotel to add more signs on/around the garage and lot behind the hotel regarding fees -- we may have parked in the lot but couldn't tell if there was a charge for that also.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights.  The hotel was very clean, our room was spacious, and the breakfast was excellent.  The hotel is right next to several major highways, so we had no problem getting around with our rental car.  Would stay here again if we needed a hotel in downtown Denver. Did have to pay $12/night to park in garage, which does not have many spaces for the size of the hotel.  It would be helpful for the hotel to add more signs on/around the garage and lot behind the hotel regarding fees -- we may have parked in the lot but couldn't tell if there was a charge for that also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r485211930-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>485211930</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Clean, Spacious, Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed in the Downtown Denver Fairfield Inn for a business trip and was very pleased with the service and the amenities. The check-in was swift and friendly and the room was spacious, clean, and comfortable. It was in a great location, actually walking distance from the conference I was attending and I didn't even need a car once I was there. My room was paid for so I can't comment on the value, but the rooms felt very new and luxurious and had large bathrooms. I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, sales manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in the Downtown Denver Fairfield Inn for a business trip and was very pleased with the service and the amenities. The check-in was swift and friendly and the room was spacious, clean, and comfortable. It was in a great location, actually walking distance from the conference I was attending and I didn't even need a car once I was there. My room was paid for so I can't comment on the value, but the rooms felt very new and luxurious and had large bathrooms. I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r483316093-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>483316093</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Want to like it, but....</t>
+  </si>
+  <si>
+    <t>The hotel is brand new.  The rooms and common areas are all sparking clean and comfortable.  All of the people I interacted with were friendly and professional.  If you like the Fairfield Inn brand you get what you'd expect - the benefit is it's brand new.
+My reasons for an average rating:
+*  The hotel has 87 rooms, and there are only 30 to 35 covered parking spaces.  After that you have to park on the street.  They don't even have their own parking lot.  The area seems safe enough, BUT, I really don't want to take the risk of parking a rental car on the street....  The day I arrived there was a hail storm and thankfully I was able to get into the covered parking before it hit.  If not - I'm sure I'd have the rental car company on my....  If you don't need a car this isn't an issue, but when I travel for work I need a car, and I don't like this setup.
+*  You need some street level signage.  Unless you see the signage at the top of the building when you're a little bit away you have NO IDEA you're at the hotel.  Nothing at street level, no signs that this is the entrance and you need to take the elevator up... NOTHING.  As I mentioned there was a hail storm on arrival - I just lucked out and pulled into a...The hotel is brand new.  The rooms and common areas are all sparking clean and comfortable.  All of the people I interacted with were friendly and professional.  If you like the Fairfield Inn brand you get what you'd expect - the benefit is it's brand new.My reasons for an average rating:*  The hotel has 87 rooms, and there are only 30 to 35 covered parking spaces.  After that you have to park on the street.  They don't even have their own parking lot.  The area seems safe enough, BUT, I really don't want to take the risk of parking a rental car on the street....  The day I arrived there was a hail storm and thankfully I was able to get into the covered parking before it hit.  If not - I'm sure I'd have the rental car company on my....  If you don't need a car this isn't an issue, but when I travel for work I need a car, and I don't like this setup.*  You need some street level signage.  Unless you see the signage at the top of the building when you're a little bit away you have NO IDEA you're at the hotel.  Nothing at street level, no signs that this is the entrance and you need to take the elevator up... NOTHING.  As I mentioned there was a hail storm on arrival - I just lucked out and pulled into a "parking garage".  I had no idea it was the Fairfield garage, and literally had to go up to the lobby to determine where I was.If you need a car - I'm not sure this place works....  Get some signage at street level...MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is brand new.  The rooms and common areas are all sparking clean and comfortable.  All of the people I interacted with were friendly and professional.  If you like the Fairfield Inn brand you get what you'd expect - the benefit is it's brand new.
+My reasons for an average rating:
+*  The hotel has 87 rooms, and there are only 30 to 35 covered parking spaces.  After that you have to park on the street.  They don't even have their own parking lot.  The area seems safe enough, BUT, I really don't want to take the risk of parking a rental car on the street....  The day I arrived there was a hail storm and thankfully I was able to get into the covered parking before it hit.  If not - I'm sure I'd have the rental car company on my....  If you don't need a car this isn't an issue, but when I travel for work I need a car, and I don't like this setup.
+*  You need some street level signage.  Unless you see the signage at the top of the building when you're a little bit away you have NO IDEA you're at the hotel.  Nothing at street level, no signs that this is the entrance and you need to take the elevator up... NOTHING.  As I mentioned there was a hail storm on arrival - I just lucked out and pulled into a...The hotel is brand new.  The rooms and common areas are all sparking clean and comfortable.  All of the people I interacted with were friendly and professional.  If you like the Fairfield Inn brand you get what you'd expect - the benefit is it's brand new.My reasons for an average rating:*  The hotel has 87 rooms, and there are only 30 to 35 covered parking spaces.  After that you have to park on the street.  They don't even have their own parking lot.  The area seems safe enough, BUT, I really don't want to take the risk of parking a rental car on the street....  The day I arrived there was a hail storm and thankfully I was able to get into the covered parking before it hit.  If not - I'm sure I'd have the rental car company on my....  If you don't need a car this isn't an issue, but when I travel for work I need a car, and I don't like this setup.*  You need some street level signage.  Unless you see the signage at the top of the building when you're a little bit away you have NO IDEA you're at the hotel.  Nothing at street level, no signs that this is the entrance and you need to take the elevator up... NOTHING.  As I mentioned there was a hail storm on arrival - I just lucked out and pulled into a "parking garage".  I had no idea it was the Fairfield garage, and literally had to go up to the lobby to determine where I was.If you need a car - I'm not sure this place works....  Get some signage at street level...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r481610869-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>481610869</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Stay!</t>
+  </si>
+  <si>
+    <t>From the moment Trevon greeted us at the front desk, to his recommendations for dinner, to breakfast, room service and check out.  This was a very nice experience and if I'm in this area again I'll certainly stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment Trevon greeted us at the front desk, to his recommendations for dinner, to breakfast, room service and check out.  This was a very nice experience and if I'm in this area again I'll certainly stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r473052760-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>473052760</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Nice smaller hotel</t>
+  </si>
+  <si>
+    <t>I want to first of all say that Trason and the rest of the staff was extremely helpful! The gave me maps, talked with me, and couldn't have been more accommodating. The hotel was very nice and very well taken care of. The hotel was also a little smaller so it wasn't as crowded in the lobby even tho one night I was here it was sold out. If you are looking for a smaller hotel but in downtown with a good price. This is it. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Fairfield Staff at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>I want to first of all say that Trason and the rest of the staff was extremely helpful! The gave me maps, talked with me, and couldn't have been more accommodating. The hotel was very nice and very well taken care of. The hotel was also a little smaller so it wasn't as crowded in the lobby even tho one night I was here it was sold out. If you are looking for a smaller hotel but in downtown with a good price. This is it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r471056367-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>471056367</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>Nice, new hotel with comfortable beds. Great location in Lohi - short walk to great restaurants like Lola and Linger and an easy 30 minute walk from Union Station. The staff was very great, especially Traevon!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Nice, new hotel with comfortable beds. Great location in Lohi - short walk to great restaurants like Lola and Linger and an easy 30 minute walk from Union Station. The staff was very great, especially Traevon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r470740607-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>470740607</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>concierge</t>
+  </si>
+  <si>
+    <t>Mr. Travon Collier (sp) was wonderful and inspirational in making sure our reservation and stay was pleasant. The purpose of this visit is due to bereavement. His hospitality was top notch. The hotel is highly rated and if anyone is looking for a wonderful place and most accommodating place to stay, Fairfield Inn Marriott Denver Downtown is the place to come. The rooms are huge and the amnesties are perfect. Hot breakfast, clean rooms, spacious rooms, and overall the hotel greeter (concierge) - Travon was outstanding. I will continue to share my experience with my family and friends about how wonderful our experience has been.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sale Manager  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Mr. Travon Collier (sp) was wonderful and inspirational in making sure our reservation and stay was pleasant. The purpose of this visit is due to bereavement. His hospitality was top notch. The hotel is highly rated and if anyone is looking for a wonderful place and most accommodating place to stay, Fairfield Inn Marriott Denver Downtown is the place to come. The rooms are huge and the amnesties are perfect. Hot breakfast, clean rooms, spacious rooms, and overall the hotel greeter (concierge) - Travon was outstanding. I will continue to share my experience with my family and friends about how wonderful our experience has been.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r467354276-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>467354276</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Fun and Funky, Great Place in Highlands Neighborhood</t>
+  </si>
+  <si>
+    <t>My daughter and I enjoyed our recent stay at this Fairfield Inn, located in the very hip Highlands neighborhood of Denver. You're not in the thick of downtown, but you're in a fun and funky area, with unique restaurants, boutiques, galleries, and a great vibe. This hotel fits in perfectly. 
+First, a shout out to Luis, who gave me perfect directions from the airport and also a breezy check in.  I'd brought a special cake to surprise my daughter and Luis helped me find milk and a tray and everything I needed. He was terrific, friendly and helpful. 
+The lobby is on the second floor and it's pleasant, with a gas fireplace, places to sit and relax, a little market that sells food items and small toiletries...the usual hotel amenities. And despite the fact there was a big parade in town and the hotel was full, the place was clean and quiet. 
+Our room on the fourth floor was just as I'd requested it:  quiet and away from the elevator. It was a little on the small side, but was tastefully decorated with dark woods and gray colors. The bed was extremely comfortable as were the pillows. It was also quiet and clean.  The only downside was it had no view; we saw a power pole up close, but that was a very small blip in this lovely hotel experience. The desk was glass topped with an adjustable chair which...My daughter and I enjoyed our recent stay at this Fairfield Inn, located in the very hip Highlands neighborhood of Denver. You're not in the thick of downtown, but you're in a fun and funky area, with unique restaurants, boutiques, galleries, and a great vibe. This hotel fits in perfectly. First, a shout out to Luis, who gave me perfect directions from the airport and also a breezy check in.  I'd brought a special cake to surprise my daughter and Luis helped me find milk and a tray and everything I needed. He was terrific, friendly and helpful. The lobby is on the second floor and it's pleasant, with a gas fireplace, places to sit and relax, a little market that sells food items and small toiletries...the usual hotel amenities. And despite the fact there was a big parade in town and the hotel was full, the place was clean and quiet. Our room on the fourth floor was just as I'd requested it:  quiet and away from the elevator. It was a little on the small side, but was tastefully decorated with dark woods and gray colors. The bed was extremely comfortable as were the pillows. It was also quiet and clean.  The only downside was it had no view; we saw a power pole up close, but that was a very small blip in this lovely hotel experience. The desk was glass topped with an adjustable chair which was comfortable. Two large drawers (one containing the room safe) were available as was a small but deep closet. The night stands had individual lights and plenty of outlets to charge your electronics. The Keurig coffee pot was a great touch. To give you an idea of how on top of things the staff is at this hotel, housekeeping stopped by to make sure we had the proper Keurig cups of coffee, and not just decaf.  I hadn't noticed but there were only decaf cups so they switched some out immediately. The bath was terrific. It had a large vanity counter which I loved and an enormous shower. The water pressure was strong and the water was hot. The towels were fluffy and white. And the lighting was nice, do applying makeup was easy. The hotel offered a complimentary breakfast and one morning I took advantage of it. The selection wasn't enormous but it wasn't bad and the good was good. I liked that they offered both turkey and pork sausage and scrambled eggs and eggs with cheese. There were fresh made waffles, cereals, yogurt, fruit, bagels, sweet breads, juices...there was no reason to leave hungry. I had a few extra requests, such as extra towels, pillows, and blankets, and all were met swiftly and with a smile. There is parking under the hotel for $12 per day or you can park on the street. The street parking is hit or miss, and the hotel lot filled up. But I think once the construction across the street is complete, the street parking might free up somewhat. Overall, this Fairfield Inn was a terrific place to stay.  It was clean, comfortable, nicely appointed, with friendly and very competent staff. It was quiet, which is important to me. The location is great, with good highway access and close to downtown yet in the great Highlands neighborhood which is filled with things to do. I'll definitely visit again on future trips to Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>My daughter and I enjoyed our recent stay at this Fairfield Inn, located in the very hip Highlands neighborhood of Denver. You're not in the thick of downtown, but you're in a fun and funky area, with unique restaurants, boutiques, galleries, and a great vibe. This hotel fits in perfectly. 
+First, a shout out to Luis, who gave me perfect directions from the airport and also a breezy check in.  I'd brought a special cake to surprise my daughter and Luis helped me find milk and a tray and everything I needed. He was terrific, friendly and helpful. 
+The lobby is on the second floor and it's pleasant, with a gas fireplace, places to sit and relax, a little market that sells food items and small toiletries...the usual hotel amenities. And despite the fact there was a big parade in town and the hotel was full, the place was clean and quiet. 
+Our room on the fourth floor was just as I'd requested it:  quiet and away from the elevator. It was a little on the small side, but was tastefully decorated with dark woods and gray colors. The bed was extremely comfortable as were the pillows. It was also quiet and clean.  The only downside was it had no view; we saw a power pole up close, but that was a very small blip in this lovely hotel experience. The desk was glass topped with an adjustable chair which...My daughter and I enjoyed our recent stay at this Fairfield Inn, located in the very hip Highlands neighborhood of Denver. You're not in the thick of downtown, but you're in a fun and funky area, with unique restaurants, boutiques, galleries, and a great vibe. This hotel fits in perfectly. First, a shout out to Luis, who gave me perfect directions from the airport and also a breezy check in.  I'd brought a special cake to surprise my daughter and Luis helped me find milk and a tray and everything I needed. He was terrific, friendly and helpful. The lobby is on the second floor and it's pleasant, with a gas fireplace, places to sit and relax, a little market that sells food items and small toiletries...the usual hotel amenities. And despite the fact there was a big parade in town and the hotel was full, the place was clean and quiet. Our room on the fourth floor was just as I'd requested it:  quiet and away from the elevator. It was a little on the small side, but was tastefully decorated with dark woods and gray colors. The bed was extremely comfortable as were the pillows. It was also quiet and clean.  The only downside was it had no view; we saw a power pole up close, but that was a very small blip in this lovely hotel experience. The desk was glass topped with an adjustable chair which was comfortable. Two large drawers (one containing the room safe) were available as was a small but deep closet. The night stands had individual lights and plenty of outlets to charge your electronics. The Keurig coffee pot was a great touch. To give you an idea of how on top of things the staff is at this hotel, housekeeping stopped by to make sure we had the proper Keurig cups of coffee, and not just decaf.  I hadn't noticed but there were only decaf cups so they switched some out immediately. The bath was terrific. It had a large vanity counter which I loved and an enormous shower. The water pressure was strong and the water was hot. The towels were fluffy and white. And the lighting was nice, do applying makeup was easy. The hotel offered a complimentary breakfast and one morning I took advantage of it. The selection wasn't enormous but it wasn't bad and the good was good. I liked that they offered both turkey and pork sausage and scrambled eggs and eggs with cheese. There were fresh made waffles, cereals, yogurt, fruit, bagels, sweet breads, juices...there was no reason to leave hungry. I had a few extra requests, such as extra towels, pillows, and blankets, and all were met swiftly and with a smile. There is parking under the hotel for $12 per day or you can park on the street. The street parking is hit or miss, and the hotel lot filled up. But I think once the construction across the street is complete, the street parking might free up somewhat. Overall, this Fairfield Inn was a terrific place to stay.  It was clean, comfortable, nicely appointed, with friendly and very competent staff. It was quiet, which is important to me. The location is great, with good highway access and close to downtown yet in the great Highlands neighborhood which is filled with things to do. I'll definitely visit again on future trips to Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r465730240-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>465730240</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Very Good Hotel!!</t>
+  </si>
+  <si>
+    <t>I must say I've stayed at several hotels in the Down Town Denver area and this hotel is by far the best! the front desk staff is very friendly and professional! from the moment I walk into this hotel I feel very welcomed! the rooms are very clean and beautiful! I found the breakfast to be a little basic for this hotel I would suggest adding more meat options such as bacon. All in all 10/10 thank you for being my home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>I must say I've stayed at several hotels in the Down Town Denver area and this hotel is by far the best! the front desk staff is very friendly and professional! from the moment I walk into this hotel I feel very welcomed! the rooms are very clean and beautiful! I found the breakfast to be a little basic for this hotel I would suggest adding more meat options such as bacon. All in all 10/10 thank you for being my home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r464902094-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>464902094</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Travon at the front desk is outstanding!</t>
+  </si>
+  <si>
+    <t>Travon at the front desk makes this hotel my home away from home. He doesn't spare any effort to make me feel welcomed! In addition to Travon, the hotel is brand new, the rooms are great, and the price is right!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Travon at the front desk makes this hotel my home away from home. He doesn't spare any effort to make me feel welcomed! In addition to Travon, the hotel is brand new, the rooms are great, and the price is right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r458727257-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>458727257</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Wow very impressive for just over $100</t>
+  </si>
+  <si>
+    <t>Stayed one night as I knew it had just recently been built.  Awesome place very clean and comfortable.  Took Uber downtown for just $5 in a shared ride.  Amazing little restaurants all around with in walking distance, plenty of street parking to avoid the additional $12.This will be my hang out place when in Denver!  MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night as I knew it had just recently been built.  Awesome place very clean and comfortable.  Took Uber downtown for just $5 in a shared ride.  Amazing little restaurants all around with in walking distance, plenty of street parking to avoid the additional $12.This will be my hang out place when in Denver!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r458697174-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>458697174</t>
+  </si>
+  <si>
+    <t>Great Place, limited covered parking though</t>
+  </si>
+  <si>
+    <t>I choose this Fairfield because it was close to where I was attending a meeting.  The reviews were good to great and so I made the reservation.  Everything was great, it was quiet, nice room, very clean, and comfortable bed.  There were plenty of choices for breakfast and the Internet worked well.  Everything does feel new and contemporary.  This one is now on my list of hotels to utilize when in the Denver area.  The covered parking is a bit limited and there is a fee for it.  You can park on the surrounding streets to save the fee, if you want to.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Mangager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>I choose this Fairfield because it was close to where I was attending a meeting.  The reviews were good to great and so I made the reservation.  Everything was great, it was quiet, nice room, very clean, and comfortable bed.  There were plenty of choices for breakfast and the Internet worked well.  Everything does feel new and contemporary.  This one is now on my list of hotels to utilize when in the Denver area.  The covered parking is a bit limited and there is a fee for it.  You can park on the surrounding streets to save the fee, if you want to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r457937584-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>457937584</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Excelent Fairfield Inn</t>
+  </si>
+  <si>
+    <t>Modern, contemporary design with covered parking and lovely lobby really welcomes you! Excellent location, helpful staff and nice amenities. It features an indoor pool, fitness center, outdoor patio area and continental breakfast. Loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, General Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Modern, contemporary design with covered parking and lovely lobby really welcomes you! Excellent location, helpful staff and nice amenities. It features an indoor pool, fitness center, outdoor patio area and continental breakfast. Loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r451897336-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>451897336</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff at new location </t>
+  </si>
+  <si>
+    <t>Travon at reception was excellent,! The gentleman downstairs at the parking area was also very helpful. This property is in great shape, nice rooms, Great location it's a little hard to find the lobby as it's on the second floor above the parking. I would recommend to management to do a better job with signage but other than that, this place is a great value great location and exceptional staff congratulations Fairfield Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Travon at reception was excellent,! The gentleman downstairs at the parking area was also very helpful. This property is in great shape, nice rooms, Great location it's a little hard to find the lobby as it's on the second floor above the parking. I would recommend to management to do a better job with signage but other than that, this place is a great value great location and exceptional staff congratulations Fairfield Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r449404487-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>449404487</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Clean, pretty, convenient, courteous</t>
+  </si>
+  <si>
+    <t>We stayed just one night at this newish hotel in Denver. The room was clean and comfortable. The bed was one of the comfiest we've encountered in a hotel. Staff was friendly and helpful. Free morning breakfast was copious and fresh. The dining area is particularly sunny and lovely. You can pay $12 to park in the garage or you can park on the street for free. When we arrived at 8:00 pm there were plenty of free spots, but none when we left at 9:30 am. The location is very convenient to route 25. Not really in walking distance of anything we wanted to visit, but a nice view of the amusement park. I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed just one night at this newish hotel in Denver. The room was clean and comfortable. The bed was one of the comfiest we've encountered in a hotel. Staff was friendly and helpful. Free morning breakfast was copious and fresh. The dining area is particularly sunny and lovely. You can pay $12 to park in the garage or you can park on the street for free. When we arrived at 8:00 pm there were plenty of free spots, but none when we left at 9:30 am. The location is very convenient to route 25. Not really in walking distance of anything we wanted to visit, but a nice view of the amusement park. I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r449194348-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>449194348</t>
+  </si>
+  <si>
+    <t>Fairfield Inn for NYE</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for NYE and to see the Raiders Broncos game. This hotel is located in a safe neighborhood and is within walking distance of several restaurants, spas, etc. The interior of the hotel is immaculate, everything is brand new and they work hard to keep it clean. Our room was the same, spacious, clean, and affordable. The front desk worker (I wish I remembered his name) was extremely helpful and efficient, helping us secure our luggage and giving us a late check out due to our flight. Did not get to check out the indoor pool but I saw somepeople heading down there. We definitely enjoyed our stay in Denver at the Fairfield Inn! Almost forgot to mention the view of the Denver downtown skyline from the hill the hotel sits on! Awesome! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for NYE and to see the Raiders Broncos game. This hotel is located in a safe neighborhood and is within walking distance of several restaurants, spas, etc. The interior of the hotel is immaculate, everything is brand new and they work hard to keep it clean. Our room was the same, spacious, clean, and affordable. The front desk worker (I wish I remembered his name) was extremely helpful and efficient, helping us secure our luggage and giving us a late check out due to our flight. Did not get to check out the indoor pool but I saw somepeople heading down there. We definitely enjoyed our stay in Denver at the Fairfield Inn! Almost forgot to mention the view of the Denver downtown skyline from the hill the hotel sits on! Awesome! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r446151960-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>446151960</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>Check in fast easy to get to off freeway I wouldnt exactly call it downtown as downtown is across the freeway. View of downtown. Indoor pool..parking knocks the hotel down from a 5 star stay to 4 star as in all honesty if there isnt a free option at a limited service hotel charging isnt on par unless its super cheap. $12 a day is a 10% surcharge over what we paid a night. $5 a day is still a profit center. Anyway its so much easier to be a cheap skate complainer than rave. The price at $110 a night is very fair. Place is new and immaculate. I do recommend but I like other business guys just despise and detest Executes viewing every possible interaction with their clients as a profit center the nickel and diming is overplayed. Charge me $127 parking and internet and breakfast free...Id pay and youd have a 5 star. MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Check in fast easy to get to off freeway I wouldnt exactly call it downtown as downtown is across the freeway. View of downtown. Indoor pool..parking knocks the hotel down from a 5 star stay to 4 star as in all honesty if there isnt a free option at a limited service hotel charging isnt on par unless its super cheap. $12 a day is a 10% surcharge over what we paid a night. $5 a day is still a profit center. Anyway its so much easier to be a cheap skate complainer than rave. The price at $110 a night is very fair. Place is new and immaculate. I do recommend but I like other business guys just despise and detest Executes viewing every possible interaction with their clients as a profit center the nickel and diming is overplayed. Charge me $127 parking and internet and breakfast free...Id pay and youd have a 5 star. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r441729698-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>441729698</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Stayed at this property last night. What an awesome place. Clean, great beds, great overall service. Will be back. The front desk person was very helpful and polite. It would be so nice if all hotels had this type of service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this property last night. What an awesome place. Clean, great beds, great overall service. Will be back. The front desk person was very helpful and polite. It would be so nice if all hotels had this type of service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r439751233-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>439751233</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>NIce new property</t>
+  </si>
+  <si>
+    <t>Stayed here one night and all was good, very quiet.  Large room though felt like something was missing, between the bed and the window there was just a large empty spaces - seems like ususally there is a chair or a table or something in that space. Big bathroom. Lots of outlets is always a plus. Immediate freeway access but no freeway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here one night and all was good, very quiet.  Large room though felt like something was missing, between the bed and the window there was just a large empty spaces - seems like ususally there is a chair or a table or something in that space. Big bathroom. Lots of outlets is always a plus. Immediate freeway access but no freeway noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r433982680-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>433982680</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay after a great night!</t>
+  </si>
+  <si>
+    <t>Hotel was very nice and clean. The staff was very helpful in getting us a second room, for some friends we bumped into at the concert! The only thing is I did not see clear marking's on where to enter but then again I was slightly intoxicated!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was very nice and clean. The staff was very helpful in getting us a second room, for some friends we bumped into at the concert! The only thing is I did not see clear marking's on where to enter but then again I was slightly intoxicated!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r432520164-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>432520164</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Maroon 5 concert</t>
+  </si>
+  <si>
+    <t>It was hard to find the lobby as it was on the second floor I believe. Valet was nice!!  Close to the Pepsi Center. It was cold so we Uber over instead of walking as planned. We had a great stay!!! Would definitely stay here again!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>It was hard to find the lobby as it was on the second floor I believe. Valet was nice!!  Close to the Pepsi Center. It was cold so we Uber over instead of walking as planned. We had a great stay!!! Would definitely stay here again!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r429867016-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>429867016</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Too Much Construction</t>
+  </si>
+  <si>
+    <t>First time in Denver.  Hotel is located on perimeter of downtown area so navigation is fairly easy.  Rooms are clean, relatively quiet for location, and service was good.  The only drawback is the massive amount of construction in the area.  Had to be dropped off at the corner and walk to the hotel.  book a higher floor with a city view.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>First time in Denver.  Hotel is located on perimeter of downtown area so navigation is fairly easy.  Rooms are clean, relatively quiet for location, and service was good.  The only drawback is the massive amount of construction in the area.  Had to be dropped off at the corner and walk to the hotel.  book a higher floor with a city view.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r427081779-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427081779</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Good spot, awesome location</t>
+  </si>
+  <si>
+    <t>As a frequent traveler to Denver, I was waiting for this spot to open. Unless you are planning ahead, downtown is super pricey. Located just the other side of downtown, this spot offers great access to I-25 (you even have a view of the heavy traffic!).  The area surrounding it-especially 32nd-has some great bars and restaurants. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>As a frequent traveler to Denver, I was waiting for this spot to open. Unless you are planning ahead, downtown is super pricey. Located just the other side of downtown, this spot offers great access to I-25 (you even have a view of the heavy traffic!).  The area surrounding it-especially 32nd-has some great bars and restaurants. Highly recommend!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1693,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1725,3176 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>295</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>310</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>311</v>
+      </c>
+      <c r="X36" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X37" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>326</v>
+      </c>
+      <c r="X38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>333</v>
+      </c>
+      <c r="X39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>254</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>340</v>
+      </c>
+      <c r="X40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>348</v>
+      </c>
+      <c r="X41" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>352</v>
+      </c>
+      <c r="J42" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s">
+        <v>355</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>254</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>348</v>
+      </c>
+      <c r="X42" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>362</v>
+      </c>
+      <c r="X43" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>365</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>366</v>
+      </c>
+      <c r="J44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" t="s">
+        <v>368</v>
+      </c>
+      <c r="L44" t="s">
+        <v>369</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>378</v>
+      </c>
+      <c r="X45" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>386</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>396</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>397</v>
+      </c>
+      <c r="X47" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>397</v>
+      </c>
+      <c r="X48" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>406</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>407</v>
+      </c>
+      <c r="J49" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s">
+        <v>410</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>411</v>
+      </c>
+      <c r="X49" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J50" t="s">
+        <v>416</v>
+      </c>
+      <c r="K50" t="s">
+        <v>417</v>
+      </c>
+      <c r="L50" t="s">
+        <v>418</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>395</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>419</v>
+      </c>
+      <c r="X50" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_90.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="682">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,159 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r610695731-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>119948</t>
+  </si>
+  <si>
+    <t>610695731</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The staff was helpful and the hotel was clean and in good condition. Fairfield Inns are pretty similar in room style, bedding, and quality. It is an excellent hotel for the price. The 3 star rating I gave this is because it is not a 4 or 5 star property. It is exactly what you would expect at this price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>The staff was helpful and the hotel was clean and in good condition. Fairfield Inns are pretty similar in room style, bedding, and quality. It is an excellent hotel for the price. The 3 star rating I gave this is because it is not a 4 or 5 star property. It is exactly what you would expect at this price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r605325977-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>605325977</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Very nice near downtown</t>
+  </si>
+  <si>
+    <t>I stayed at the Fairfield on the final night of a Front Range trip, a Friday. Not nearly as expensive as hotels IN downtown; that's because it's just west of downtown and about a 15-20 minute walk across the river bridge (and I understand it's within walking distance of Invesco Field at Mile High). The walk was safe, even at night. No restaurants nearby, except for a couple of gas stations across the street and the excellent Zuni brew pub 2 blocks north. I was able to park on the street at 5 pm Friday in the first space across from the hotel west and keep it there all night (saved $12). As for the hotel, it was very nice and clean and check in/check out was very nice. I was in room 300, with view of my car, but that was OK. It was secluded and right next to stair, convenient to pool and lobby.  Pool had view of downtown and partial view of football stadium. TV had YouTube, which was great. Didn't have full breakfast, though I went down at 7 am and again at 9:30 and it was very crowded both times. I joined Marriott rewards just before trip and I would definitely stay again when in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at the Fairfield on the final night of a Front Range trip, a Friday. Not nearly as expensive as hotels IN downtown; that's because it's just west of downtown and about a 15-20 minute walk across the river bridge (and I understand it's within walking distance of Invesco Field at Mile High). The walk was safe, even at night. No restaurants nearby, except for a couple of gas stations across the street and the excellent Zuni brew pub 2 blocks north. I was able to park on the street at 5 pm Friday in the first space across from the hotel west and keep it there all night (saved $12). As for the hotel, it was very nice and clean and check in/check out was very nice. I was in room 300, with view of my car, but that was OK. It was secluded and right next to stair, convenient to pool and lobby.  Pool had view of downtown and partial view of football stadium. TV had YouTube, which was great. Didn't have full breakfast, though I went down at 7 am and again at 9:30 and it was very crowded both times. I joined Marriott rewards just before trip and I would definitely stay again when in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r603132235-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>603132235</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Utterly fantastic. No really!!</t>
+  </si>
+  <si>
+    <t>Brilliant. The two ladies at reception, Jessica and Sierra were simply outstanding. Nothing was too much bother. Upgraded our room (2 adults, 2 kids) to a wonderful suite. Thank you!  Best hotel so far on our 3 week road trip (we are Marriott Gold and always stay in Marriott). Perry, the concierge was fab too. Great local advice on restaurants and a genuinely nice fella. If ever in Denver again, we will definitely stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Brilliant. The two ladies at reception, Jessica and Sierra were simply outstanding. Nothing was too much bother. Upgraded our room (2 adults, 2 kids) to a wonderful suite. Thank you!  Best hotel so far on our 3 week road trip (we are Marriott Gold and always stay in Marriott). Perry, the concierge was fab too. Great local advice on restaurants and a genuinely nice fella. If ever in Denver again, we will definitely stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r602974012-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>602974012</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Beautiful clean and modern rooms, view of downtown Denver is amazing..the showers are spacious, swimming pool is clean. Very friendly staff. Great breakfast included with seats allowing us to enjoy the view of downtown. Easy walk to Mile High StadiumMoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful clean and modern rooms, view of downtown Denver is amazing..the showers are spacious, swimming pool is clean. Very friendly staff. Great breakfast included with seats allowing us to enjoy the view of downtown. Easy walk to Mile High StadiumMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r599619599-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>599619599</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, Clean, Convenient Location  </t>
+  </si>
+  <si>
+    <t>We stayed here for one night to catch a couple of Astros/Rockies games. We walked the Coors from the hotel and it was an enjoyable walk through Confluence Park, Union Square and Wynkoop. We made the walk with our 6-yr old son who had no problem making the 20-25 min leisurely stroll. The hotel room was clean as was the lobby and breakfast area. The breakfast was ample enough and got us going for the day (standard Fairfield breakfast). The parking garage is a nice benefit but the street parking will suffice. The staff was very nice, professional, and personable.  We’d definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to catch a couple of Astros/Rockies games. We walked the Coors from the hotel and it was an enjoyable walk through Confluence Park, Union Square and Wynkoop. We made the walk with our 6-yr old son who had no problem making the 20-25 min leisurely stroll. The hotel room was clean as was the lobby and breakfast area. The breakfast was ample enough and got us going for the day (standard Fairfield breakfast). The parking garage is a nice benefit but the street parking will suffice. The staff was very nice, professional, and personable.  We’d definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r595798711-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595798711</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Beautiful view</t>
+  </si>
+  <si>
+    <t>Newer property with good views and clean comfortable roomsFront desk staff pleasant and efficientRoom was clean Coffee in roomsShort distance to downtown Denver within walking distance to attractionsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Newer property with good views and clean comfortable roomsFront desk staff pleasant and efficientRoom was clean Coffee in roomsShort distance to downtown Denver within walking distance to attractionsMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r594723274-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>119948</t>
-  </si>
-  <si>
     <t>594723274</t>
   </si>
   <si>
@@ -168,13 +309,10 @@
     <t>Hidden Gem</t>
   </si>
   <si>
-    <t>My family enjoyed this hotel. Very friendly staff that make you feel at home. The suites are nice. “Mother Goose” drives the shuttle. She will take you downtown every hour on the hour at no charge. We will return in the future. Relaxing retreat.</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>My family enjoyed this hotel. Very friendly staff that make you feel at home. The suites are nice. “Mother Goose” drives the shuttle. She will take you downtown every hour on the hour at no charge. We will return in the future. Relaxing retreat.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family enjoyed this hotel. Very friendly staff that make you feel at home. The suites are nice. “Mother Goose” drives the shuttle. She will take you downtown every hour on the hour at no charge. We will return in the future. Relaxing retreat.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r593864437-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
@@ -192,9 +330,6 @@
     <t>This Hotel is in a good location, near Downtown Denver, but on the other side of the Highway. Beautiful older Neighborhood nearby, perfect for a nice, interesting walk. Rooms are larger, and have lots of nice light. Gym is perfectly adequate. Breakfast is really good, and free each morning. Parking directly below the Hotel, but on this trip I parked on the street for free. Only complaint is the last 2 times I've been there they've been having elevator issues, which is a hassle, to say the least. They did give me some extra points for the inconvenience, but the smallest amount I've ever been given. Staff is Friendly &amp; helpful.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -213,7 +348,52 @@
     <t>" Close to Downtown "</t>
   </si>
   <si>
-    <t>This Marriott is a year new super clean and close to the downtown area. The rooms are large offer mini fridge's, microwave and coffee pot and for the business traveler a small desk area And, offers free breakfast. There is an onsite parking garage at $12. Per night or free street parking if you can find it due to the residential community surrounding this property. This hotel is also NOT convenient unless you have a car or uber as there are no food or shopping in close proximity.</t>
+    <t>This Marriott is a year new super clean and close to the downtown area. The rooms are large offer mini fridge's, microwave and coffee pot and for the business traveler a small desk area And, offers free breakfast. There is an onsite parking garage at $12. Per night or free street parking if you can find it due to the residential community surrounding this property. This hotel is also NOT convenient unless you have a car or uber as there are no food or shopping in close proximity.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Marriott is a year new super clean and close to the downtown area. The rooms are large offer mini fridge's, microwave and coffee pot and for the business traveler a small desk area And, offers free breakfast. There is an onsite parking garage at $12. Per night or free street parking if you can find it due to the residential community surrounding this property. This hotel is also NOT convenient unless you have a car or uber as there are no food or shopping in close proximity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r587492003-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587492003</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Weekend Trip</t>
+  </si>
+  <si>
+    <t>Wow! what amazing view.  Stayed here when we came to Denver for our sons Ninja competition!  The customer service was excellent, the rooms spacious.  Beautiful Décor!! We loved the proximity to the several attractions!  Wonderful place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! what amazing view.  Stayed here when we came to Denver for our sons Ninja competition!  The customer service was excellent, the rooms spacious.  Beautiful Décor!! We loved the proximity to the several attractions!  Wonderful place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r580870038-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580870038</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Exceptioal</t>
+  </si>
+  <si>
+    <t>Reservation alterations done flawlessly! Staff so helpful they must have known we were here to see our new granddaughter. Friendly valet helped us park and made a winning dinner recommendation as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Reservation alterations done flawlessly! Staff so helpful they must have known we were here to see our new granddaughter. Friendly valet helped us park and made a winning dinner recommendation as well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r578744034-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
@@ -234,12 +414,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded June 4, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 4, 2018</t>
-  </si>
-  <si>
     <t>This is an excellent property.  Everything is new and fresh.  Rooms are quiet, hallways spacious, and the lobby attractive. The only suggestion would be to provide clearer instruction of where to park during check-in.  Nothing is marked in the garage or on the street. Breakfast was simple but acceptable.More</t>
   </si>
   <si>
@@ -258,9 +432,6 @@
     <t>My wife and I stayed at this hotel we are Marriott reward members and it was our first time staying at a Fairfield Inn and Suites. We were incredibly surprised and impressed on how the hotel staff ran the hotel, clean clean and very organized. Very welcoming and the rooms modern and spacious for a 1 bed room...ok so I just wanted to share what made it extra special, I had booked it a few days in advance to get away for the weekend with my wife it was her birthday and one hotel staff member named Karin (shout out to her and those i didn't know of that also helped) they went above and beyond preparing a beautiful happy birthday note and went the extra mile to set up our room in a way that we never expected. It was an awesome surprise Thank you Karin we look forward to staying here again for weekends or trips and if we get to travel more it will be to a Fairfield inn and suites only...I recommend this hotel it has awesome Downtown views and breakfast is also hot and really good.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>My wife and I stayed at this hotel we are Marriott reward members and it was our first time staying at a Fairfield Inn and Suites. We were incredibly surprised and impressed on how the hotel staff ran the hotel, clean clean and very organized. Very welcoming and the rooms modern and spacious for a 1 bed room...ok so I just wanted to share what made it extra special, I had booked it a few days in advance to get away for the weekend with my wife it was her birthday and one hotel staff member named Karin (shout out to her and those i didn't know of that also helped) they went above and beyond preparing a beautiful happy birthday note and went the extra mile to set up our room in a way that we never expected. It was an awesome surprise Thank you Karin we look forward to staying here again for weekends or trips and if we get to travel more it will be to a Fairfield inn and suites only...I recommend this hotel it has awesome Downtown views and breakfast is also hot and really good.More</t>
   </si>
   <si>
@@ -285,6 +456,57 @@
     <t>We have stayed in hotels all over the world and we have stayed at plenty in denver my wife snd i enjoyed our stay at this hotel close to downtown staff was always friendly and helpful very clean the lady for the breakfast kept it clean snd full at all times between lower cost for overnight parking and free breakfast good value More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r566487837-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566487837</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel in Great Location with Great Staff!</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel while in Colorado visiting colleges (CU, CSU, DU) with my son.  We had a great view of downtown Denver as well as Mile High Stadium.  Room was large, fitness center was well equipped, clean, and the free breakfast was really good as well.  People at the front desk were super helpful - big shout out to Jessica! Also a great microbrew restaurant walking distance from the hotel - Higland Tap and Burger.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel while in Colorado visiting colleges (CU, CSU, DU) with my son.  We had a great view of downtown Denver as well as Mile High Stadium.  Room was large, fitness center was well equipped, clean, and the free breakfast was really good as well.  People at the front desk were super helpful - big shout out to Jessica! Also a great microbrew restaurant walking distance from the hotel - Higland Tap and Burger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r558818531-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>558818531</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Great new hotel in trendy Denver area!</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel. Brand new, cool lobby. People at the front desk were super nice, and there are a number of cool restaurants and microbreweries within a short walk. I would almost prefer staying here over downtown. Good place!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel. Brand new, cool lobby. People at the front desk were super nice, and there are a number of cool restaurants and microbreweries within a short walk. I would almost prefer staying here over downtown. Good place!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r556688127-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -354,6 +576,42 @@
     <t>We stayed here on New Years so we didn’t have to drive home. The hotel staff was extremely nice, the price was great compared to the hotels directly downtown, and it was very clean.  It’s only a 5 minute car ride to all of the action downtown and on the 16th Street Mall. Definitely worth checking out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r550767594-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>550767594</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel and location</t>
+  </si>
+  <si>
+    <t>We were visiting family in the Highlands neighborhood in Denver and stayed at this hotel.  It is a beautiful new hotel and was perfect for our needs.  It was convenient, quiet, had a wonderful breakfast, and the rooms were very clean. An added bonus was the staff and especially the check in receptionist, Jasmine.  She was very welcoming with all the guests and gave us timely information on breakfast, check out time, etc. We will definitely be staying here on our next visit to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We were visiting family in the Highlands neighborhood in Denver and stayed at this hotel.  It is a beautiful new hotel and was perfect for our needs.  It was convenient, quiet, had a wonderful breakfast, and the rooms were very clean. An added bonus was the staff and especially the check in receptionist, Jasmine.  She was very welcoming with all the guests and gave us timely information on breakfast, check out time, etc. We will definitely be staying here on our next visit to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r550048823-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>550048823</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing Hotel</t>
+  </si>
+  <si>
+    <t>Our hotel room was clean and very spacious. We stayed in a corner room that had a view of Downtown Denver. The main reason I am writing this comment is because I was blown away with how amazing the customer service was! Each staff member was polite and kind. Nicholas checked us in and he gave us GREAT service and honestly its RARE! The two nights I stayed there he greeted us and made causal conversation every time he saw us.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r544499144-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -420,6 +678,39 @@
     <t>Great hotel in a great location with great staff people.All of their employees were kind, gracious and professional.Hotel property was very clean and the rooms a very nice size.All the amenities you could want were at this hotel.Will definitely stay at this hotel again next time I am in the Denver area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r532947049-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532947049</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>Excellent location for us!  You are right across the interstate from downtown but not staying in all the hustle and bustle of it.  Denver is a city that walks so lace up your tennis shoes and you can get to some great restaurants, bars and entertainment in The Highlands and LoDo.  The room was super nice and clean with a big bathroom, a Keurig, fridge and microwave.  Also our room was very quiet.  We were worried b/c there was a wedding that weekend at the hotel but we would have never known it.  Our only complaint was our room looked out onto the parking lot of the neighboring hotel.  Breakfast was included in our stay but started at 7am which is too late in our opinion.  We were headed out of our room by that time or earlier each day.  The morning that we left for the airport, we grabbed a bowl of cereal before the breakfast was open but nothing hot was ready and the lady was just starting to put everything out.  If you want to park in the covered parking garage underneath the hotel, it is $12/day but there is plenty of street parking that is free.  We didn't have time to check out the pool or workout room but I'm sure they were very nice since everything else was in the hotel.  All of the staff that we encountered was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent location for us!  You are right across the interstate from downtown but not staying in all the hustle and bustle of it.  Denver is a city that walks so lace up your tennis shoes and you can get to some great restaurants, bars and entertainment in The Highlands and LoDo.  The room was super nice and clean with a big bathroom, a Keurig, fridge and microwave.  Also our room was very quiet.  We were worried b/c there was a wedding that weekend at the hotel but we would have never known it.  Our only complaint was our room looked out onto the parking lot of the neighboring hotel.  Breakfast was included in our stay but started at 7am which is too late in our opinion.  We were headed out of our room by that time or earlier each day.  The morning that we left for the airport, we grabbed a bowl of cereal before the breakfast was open but nothing hot was ready and the lady was just starting to put everything out.  If you want to park in the covered parking garage underneath the hotel, it is $12/day but there is plenty of street parking that is free.  We didn't have time to check out the pool or workout room but I'm sure they were very nice since everything else was in the hotel.  All of the staff that we encountered was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r532879436-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532879436</t>
+  </si>
+  <si>
+    <t>Awesome stay for first timers</t>
+  </si>
+  <si>
+    <t>This hotel is centrally located , it is about 10 minutes to downtown. The area is very quaint lots of eateries in walking distance. The hotel in itself was very clean &amp; rooms are spacious, plenty of parking &amp; very safe area. Continental breakfast was also a nice add on &amp; you can enjoy it in the lobby area near a fireplace or near a downtown view. The staff was great &amp; very helpful, Druv &amp; Jessica gave us some good suggestions for lunch and dinner spots . I also enjoyed the option to connect my Netflix account to their tv &amp; continued to watch my favorite show in the evening. When we return to Denver we will be staying here !MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is centrally located , it is about 10 minutes to downtown. The area is very quaint lots of eateries in walking distance. The hotel in itself was very clean &amp; rooms are spacious, plenty of parking &amp; very safe area. Continental breakfast was also a nice add on &amp; you can enjoy it in the lobby area near a fireplace or near a downtown view. The staff was great &amp; very helpful, Druv &amp; Jessica gave us some good suggestions for lunch and dinner spots . I also enjoyed the option to connect my Netflix account to their tv &amp; continued to watch my favorite show in the evening. When we return to Denver we will be staying here !More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r532072159-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -489,6 +780,51 @@
     <t>Nice roomy clean rooms.  New hotel so all is up to snuff.  Lobby on 2nd floor above parking.  Breakfast good.  Staff friendly and efficient.  Close to stadium and only 1.8 miles from convention center.  Beware no restaurants very close to the hotel.  closest is approximately 1/4 mile away uphill or the convenience marts at the gas stations on the corner.My only complaint is the $12.00/night fee for parking but there is plenty of street parking.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r518959696-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518959696</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Great location / very clean / new</t>
+  </si>
+  <si>
+    <t>Had a great experience last weekend.  We stayed here due to the location for the Denver Broncos game.  There's a walking path (about 15 minute walk) to the stadium so you don't have to deal with parking there or Uber.  It is $12 to park in the underground, reserved spaces or street parking which could be messy with other construction still happening.Front desk service was excellent.  Room was clean, new, nice and fully stocked.  I would definitely stay here again even if headed to downtown for the night - its super close and easy to get to.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Had a great experience last weekend.  We stayed here due to the location for the Denver Broncos game.  There's a walking path (about 15 minute walk) to the stadium so you don't have to deal with parking there or Uber.  It is $12 to park in the underground, reserved spaces or street parking which could be messy with other construction still happening.Front desk service was excellent.  Room was clean, new, nice and fully stocked.  I would definitely stay here again even if headed to downtown for the night - its super close and easy to get to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r517806130-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>517806130</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Awesome visit!!</t>
+  </si>
+  <si>
+    <t>Jasmine greeted me with a genuine smile and demeanor as I arrived in the hotel lobby. It had been a long day of travel and a rough week overall, so that was a great way to begin my stay. She was in the process of assigning my room as I walked in and provided me with a free upgrade to their presidential suite. The property was well maintained, clean, and all amenities were provided. I highly recommend this hotel to all travelers, whether business or pleasure. I guarantee your expectations will be fulfilled. Keep up the great work, Jasmine and team!!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Jasmine greeted me with a genuine smile and demeanor as I arrived in the hotel lobby. It had been a long day of travel and a rough week overall, so that was a great way to begin my stay. She was in the process of assigning my room as I walked in and provided me with a free upgrade to their presidential suite. The property was well maintained, clean, and all amenities were provided. I highly recommend this hotel to all travelers, whether business or pleasure. I guarantee your expectations will be fulfilled. Keep up the great work, Jasmine and team!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r517152022-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -504,15 +840,6 @@
     <t>Excellent location in LoHi, great views, and access to LoDo. Travan was so helpful and sweet! Jasmine was also a great asset to the hotel. Walking distance to so many excellent restaurants and super-cool bars with rooftop seating. I would recommend it to anyone.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 28, 2017</t>
-  </si>
-  <si>
     <t>Excellent location in LoHi, great views, and access to LoDo. Travan was so helpful and sweet! Jasmine was also a great asset to the hotel. Walking distance to so many excellent restaurants and super-cool bars with rooftop seating. I would recommend it to anyone.More</t>
   </si>
   <si>
@@ -558,25 +885,61 @@
     <t>This hotel is less than a year old.  We stayed here while attending a Rockies game and loved the hotel and staff.  Room was spacious and modern, breakfast was excellent and well-stocked, and staff were extremely friendly and helpful.  The REI flagship store is a short walk or drive (you can see it from the lobby) and the valet recommended a great restaurant in the neighborhood a short 10-minute walk from the hotel.  Laundry facilities on the lobby floor.  Only negative was the indoor pool was a little cool and there was no hottub.  Otherwise, this was a perfect location for exploring the city and we'd stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r513468432-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>513468432</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Can't beat the value and location</t>
+  </si>
+  <si>
+    <t>Went to a concert at Broncos Stadium and this was great place to stay. New hotel and the staff was very nice. The breakfast was surprisingly tasty with a good selection. They have a small mart if you need anything on the go.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Went to a concert at Broncos Stadium and this was great place to stay. New hotel and the staff was very nice. The breakfast was surprisingly tasty with a good selection. They have a small mart if you need anything on the go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r509794024-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509794024</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel with great service</t>
+  </si>
+  <si>
+    <t>We stayed one night after a 15 hour car drive. Lovely hotel with very helpful and friendly staff upon check in. Staff recommended a great restaurant for dinner within walking distance. Our room was clean and the beds comfortable. There was a hot breakfast in the morning with plenty of choices. We would definitely stay here again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>We stayed one night after a 15 hour car drive. Lovely hotel with very helpful and friendly staff upon check in. Staff recommended a great restaurant for dinner within walking distance. Our room was clean and the beds comfortable. There was a hot breakfast in the morning with plenty of choices. We would definitely stay here again if in the area. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r509762994-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
     <t>509762994</t>
   </si>
   <si>
-    <t>08/07/2017</t>
-  </si>
-  <si>
     <t>Young, Bright, Shining Star</t>
   </si>
   <si>
     <t>The front desk staff are always friendly and accommodating, especially a gentleman named Travon.  He is very upbeat and always willing to assist with basic needs.  He always has a smile on his face and he remembers the guest's names which makes us feel special.  He goes above and beyond of the call of duty.  Kudos to Travon!!MoreShow less</t>
-  </si>
-  <si>
-    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded August 9, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 9, 2017</t>
   </si>
   <si>
     <t>The front desk staff are always friendly and accommodating, especially a gentleman named Travon.  He is very upbeat and always willing to assist with basic needs.  He always has a smile on his face and he remembers the guest's names which makes us feel special.  He goes above and beyond of the call of duty.  Kudos to Travon!!More</t>
@@ -627,24 +990,63 @@
 Bathroom was clean, and the shower is huge.  The pool was small, but adequate...We stayed at the Fairfield Inn for 2 nights during our trip through Denver.  The best aspect of the hotel is the staff from Jasmine at the Front Desk to the parking lot attendant and the members of hospitality.  We requested a suite with 2 queens and pullout as there are 4 of us in the family.  The hotel doesn't have 2 queens suites, but upgraded us to a king suite with pullout couch.  Jasmine provided us with a "Bed in a Bag" for our youngest one and we were able to make her a bed on the floor.  It was adequate.  The rooms are fairly small and we found ourselves stepping over and around one another, but made do.  The hotel is only 2 miles from downtown and we chose to drive to a few destinations like Coors Field and the 16th St. outdoor mall.  The gentleman who greeted us in the garage had a lot of great recommendations for local eateries within walking distance and even gave us a coupon for a tap room and burger joint which was excellent.  We have a big truck an parking in the garage is a PITA.  There i a small fee for parking and on our second night had to park on the street behind the hotel.  The front desk staff waived the fee for that night.Bathroom was clean, and the shower is huge.  The pool was small, but adequate for the 8 year old.  Standard breakfast fare offered each morning is included.  I would have preferred staying downtown as it would have allowed us to walk everywhere, but this was sufficient for our needs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r504432936-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>504432936</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Clean and friendly but noisy</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and well decorated. The staff was friendly and helpful. The only issue we had was that the doors are noisy when they close. And at 2am it sounded like a herd of buffalo on the floor above us for about 1/2 an hour. And we brought a fan with us to drown out the noise. Other than that it was a pleasant one-night stay with good proximity to Coors Field.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and well decorated. The staff was friendly and helpful. The only issue we had was that the doors are noisy when they close. And at 2am it sounded like a herd of buffalo on the floor above us for about 1/2 an hour. And we brought a fan with us to drown out the noise. Other than that it was a pleasant one-night stay with good proximity to Coors Field.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r503334154-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>503334154</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Close to Mile High Stadium</t>
+  </si>
+  <si>
+    <t>Stayed here while attending a function at Mile High Stadium. Had a King Suite and was very pleased. The bed was very comfortable although they could provide a better choice in pillows as all they offered were very tall. Not a deal breaker but just something they could do better. The room was clean as was the bathroom. Very handy to Mile High Stadium and there is a sidewalk to the stadium. Indoor parking is offered for $12.00/night. There is a parking attendant present to issue passes and then it's added to your folio at check-out. Good place to stay with pleasant and helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here while attending a function at Mile High Stadium. Had a King Suite and was very pleased. The bed was very comfortable although they could provide a better choice in pillows as all they offered were very tall. Not a deal breaker but just something they could do better. The room was clean as was the bathroom. Very handy to Mile High Stadium and there is a sidewalk to the stadium. Indoor parking is offered for $12.00/night. There is a parking attendant present to issue passes and then it's added to your folio at check-out. Good place to stay with pleasant and helpful staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r503248770-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
     <t>503248770</t>
   </si>
   <si>
-    <t>07/18/2017</t>
-  </si>
-  <si>
     <t>Disinterested and nasty management</t>
   </si>
   <si>
     <t>When we arrived to the hotel I always try to be as pleasant as can be since I am sure it's not easy working with new quests every day.  I had a lovely host, Jasmine, who checked me and helped me acquire another room for my kids who unexpectedly needed a place to stay the following night.  I had ordered a port a crib for my grandchild and when we arrived it wasn't in the room but since it was late I suggested they bring it tomorrow when my grandchild will be arriving. In the morning the port a crib arrived and by night time it was gone.  When we noticed we had no port a crib the person on duty was Michael.  He seemed to be concerned and told me he was going to look around and he probably did but when I came downstairs he was sitting with a friend on the side having dinner. After a lot of back and forth and sort of apathy on his part he suggested I call the manager.  She was rude, unhelpful and couldn't be bothered. Thank goodness we had access to Target and was able to buy a port a crib.  It's one thing not to have enough port a cribs since it's never guaranteed, it's another thing to take it out of my room and act totally ignorant. This definitely tainted our stay there because of the management handling...When we arrived to the hotel I always try to be as pleasant as can be since I am sure it's not easy working with new quests every day.  I had a lovely host, Jasmine, who checked me and helped me acquire another room for my kids who unexpectedly needed a place to stay the following night.  I had ordered a port a crib for my grandchild and when we arrived it wasn't in the room but since it was late I suggested they bring it tomorrow when my grandchild will be arriving. In the morning the port a crib arrived and by night time it was gone.  When we noticed we had no port a crib the person on duty was Michael.  He seemed to be concerned and told me he was going to look around and he probably did but when I came downstairs he was sitting with a friend on the side having dinner. After a lot of back and forth and sort of apathy on his part he suggested I call the manager.  She was rude, unhelpful and couldn't be bothered. Thank goodness we had access to Target and was able to buy a port a crib.  It's one thing not to have enough port a cribs since it's never guaranteed, it's another thing to take it out of my room and act totally ignorant. This definitely tainted our stay there because of the management handling of the situation.  On top of that their beds sag and i was always rolling to the middle. I could have handled that if the hotel wasn't so rude.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded July 20, 2017</t>
   </si>
   <si>
@@ -699,6 +1101,45 @@
     <t>Very new and clean hotel, located in a great location near downtown Denver. Travon and the front desk staff were very accommodating and helpful with questions we had about the area and nearby transportation. Thanks for an enjoyablevisit!Ashley and BrianMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r500293591-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>500293591</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Super accommodating staff!</t>
+  </si>
+  <si>
+    <t>Our daughter's moving van was delayed, so we needed to extend our stay for two nights. The front desk staff, especially Treavon, was very understanding and worked to accommodate our request in spite of being at full capacity for the weekend. We didn't even have to change rooms!This is a new hotel, opened Fall 2016. It is very accessible to Fwy 25 yet in a quiet neighborhood. We enjoyed walking to local restaurants, especially Bar Dough as well as downtown, including the huge REI store.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our daughter's moving van was delayed, so we needed to extend our stay for two nights. The front desk staff, especially Treavon, was very understanding and worked to accommodate our request in spite of being at full capacity for the weekend. We didn't even have to change rooms!This is a new hotel, opened Fall 2016. It is very accessible to Fwy 25 yet in a quiet neighborhood. We enjoyed walking to local restaurants, especially Bar Dough as well as downtown, including the huge REI store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r499279732-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>499279732</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>great service and kind in service!!!</t>
+  </si>
+  <si>
+    <t>great room and free up grade! the room were clean and well kept. great coffee . helpful workers and caring for all our needs!! Like being home !!parking was nice and in good order . your rooms are really nice . great location also.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>great room and free up grade! the room were clean and well kept. great coffee . helpful workers and caring for all our needs!! Like being home !!parking was nice and in good order . your rooms are really nice . great location also.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r498078675-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -769,6 +1210,54 @@
   </si>
   <si>
     <t>We stayed here for two nights.  The hotel was very clean, our room was spacious, and the breakfast was excellent.  The hotel is right next to several major highways, so we had no problem getting around with our rental car.  Would stay here again if we needed a hotel in downtown Denver. Did have to pay $12/night to park in garage, which does not have many spaces for the size of the hotel.  It would be helpful for the hotel to add more signs on/around the garage and lot behind the hotel regarding fees -- we may have parked in the lot but couldn't tell if there was a charge for that also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r487501071-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>487501071</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great for business!</t>
+  </si>
+  <si>
+    <t>Hotel/Residence clean and recently inaugurated perfectly located near downtown and with easy access to highway 25. The hotel has a lobby in the second floor. It a little confusing when you arrive since you need to park on the first level and then take the elevator to 2nd floor. The location has a modern look and offer a nice view of the downtown form the lobby. The rooms are perfectly balance and well equipped. Downtown is walking distance. The staff is friendly and there is a Jacuzzi and a small gym that allows you to keep in shape.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, sales manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Hotel/Residence clean and recently inaugurated perfectly located near downtown and with easy access to highway 25. The hotel has a lobby in the second floor. It a little confusing when you arrive since you need to park on the first level and then take the elevator to 2nd floor. The location has a modern look and offer a nice view of the downtown form the lobby. The rooms are perfectly balance and well equipped. Downtown is walking distance. The staff is friendly and there is a Jacuzzi and a small gym that allows you to keep in shape.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r485983291-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>485983291</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Great rates at nice new hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because I wanted to experience a new neighborhood. The hotel is on the edge of the Highlands, so it is a several block walk to any restaurants, shops, etc.  I also liked that it is new. The rooms, lobby, etc are all very nice. The free breakfast is better than most, with hot, cold and healthy options.  The workout facility is small, but with nice equipment.  The room was very comfortable, spacious and clean.  The hotel is basically across I25 from downtown, and very easy to get to.  Parking in the garage is limited, and on the last night I had to park on the street, but there were plenty of spaces.  Hint:  if your GPS doesn't find it, put in the Hampton Inn, it is right next to it.  Overall this was a great stay and I would return and recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because I wanted to experience a new neighborhood. The hotel is on the edge of the Highlands, so it is a several block walk to any restaurants, shops, etc.  I also liked that it is new. The rooms, lobby, etc are all very nice. The free breakfast is better than most, with hot, cold and healthy options.  The workout facility is small, but with nice equipment.  The room was very comfortable, spacious and clean.  The hotel is basically across I25 from downtown, and very easy to get to.  Parking in the garage is limited, and on the last night I had to park on the street, but there were plenty of spaces.  Hint:  if your GPS doesn't find it, put in the Hampton Inn, it is right next to it.  Overall this was a great stay and I would return and recommend.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r485211930-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
@@ -846,6 +1335,54 @@
     <t>From the moment Trevon greeted us at the front desk, to his recommendations for dinner, to breakfast, room service and check out.  This was a very nice experience and if I'm in this area again I'll certainly stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r477783709-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>477783709</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>The perfect place to stay in Denver</t>
+  </si>
+  <si>
+    <t>I have reviewed this properly when they first opened but I just have to say "wow".  I stay here every few weeks and the level of service is phenomenal.  I feel like family! Travon, Michael...and others are so welcoming and accommodating. 4 Seasons level of service!The location is ideal, within walking distance of some amazing bars and restaurants in the Highlands. You can walk to downtown as well.  Great access to I-25.The one thing I would love to have on my wish list...the rooftop!  They need to do something up there. It has a phenomenal view-would be a great spot for a little bar or an area to just hang out.  Just a thought!Keep it up-you guys are doing great!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>I have reviewed this properly when they first opened but I just have to say "wow".  I stay here every few weeks and the level of service is phenomenal.  I feel like family! Travon, Michael...and others are so welcoming and accommodating. 4 Seasons level of service!The location is ideal, within walking distance of some amazing bars and restaurants in the Highlands. You can walk to downtown as well.  Great access to I-25.The one thing I would love to have on my wish list...the rooftop!  They need to do something up there. It has a phenomenal view-would be a great spot for a little bar or an area to just hang out.  Just a thought!Keep it up-you guys are doing great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r474851568-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>474851568</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Clean, friendly, and great customer service -- completely satisfied!</t>
+  </si>
+  <si>
+    <t>We were very happy with all aspects of our one-night stay.  The location was perfect for our needs, and we were very impressed with the friendly and helpful staff.  Also appreciated the tips from other reviewers that mentioned the free street parking.  Staff member Trayvon also kindly pointed this out to us as well.  Everything was brand-new and very clean.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>We were very happy with all aspects of our one-night stay.  The location was perfect for our needs, and we were very impressed with the friendly and helpful staff.  Also appreciated the tips from other reviewers that mentioned the free street parking.  Staff member Trayvon also kindly pointed this out to us as well.  Everything was brand-new and very clean.  Highly recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r473052760-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -861,9 +1398,6 @@
     <t>I want to first of all say that Trason and the rest of the staff was extremely helpful! The gave me maps, talked with me, and couldn't have been more accommodating. The hotel was very nice and very well taken care of. The hotel was also a little smaller so it wasn't as crowded in the lobby even tho one night I was here it was sold out. If you are looking for a smaller hotel but in downtown with a good price. This is it. MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>FairfieldStaff, Fairfield Staff at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded April 10, 2017</t>
   </si>
   <si>
@@ -919,6 +1453,48 @@
   </si>
   <si>
     <t>Mr. Travon Collier (sp) was wonderful and inspirational in making sure our reservation and stay was pleasant. The purpose of this visit is due to bereavement. His hospitality was top notch. The hotel is highly rated and if anyone is looking for a wonderful place and most accommodating place to stay, Fairfield Inn Marriott Denver Downtown is the place to come. The rooms are huge and the amnesties are perfect. Hot breakfast, clean rooms, spacious rooms, and overall the hotel greeter (concierge) - Travon was outstanding. I will continue to share my experience with my family and friends about how wonderful our experience has been.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r470274117-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>470274117</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>This hotel is lovely.  I had an excellent experience and would stay here again without question.  It's brand new and beautifully appointed.  In particular, the service staff is excellent.  Travon at the front desk is a gem.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is lovely.  I had an excellent experience and would stay here again without question.  It's brand new and beautifully appointed.  In particular, the service staff is excellent.  Travon at the front desk is a gem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r468128875-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>468128875</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Nice stay, great clerk</t>
+  </si>
+  <si>
+    <t>My taxi driver and I had a heck of a time trying to find the front door to this place - it's kinda subtle. But, once I got in and took the elevator up to the lobby, it was all good. It's nice, bright and clean, and the desk clerk Travon was delightful - he was so warm and friendly, treating me as though I was an old friend he hadn't seen in a while. The room was quite nice, too. I enjoyed my stay and would gladly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My taxi driver and I had a heck of a time trying to find the front door to this place - it's kinda subtle. But, once I got in and took the elevator up to the lobby, it was all good. It's nice, bright and clean, and the desk clerk Travon was delightful - he was so warm and friendly, treating me as though I was an old friend he hadn't seen in a while. The room was quite nice, too. I enjoyed my stay and would gladly stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r467354276-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
@@ -966,9 +1542,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 10, 2017</t>
   </si>
   <si>
@@ -999,6 +1572,54 @@
     <t>Travon at the front desk makes this hotel my home away from home. He doesn't spare any effort to make me feel welcomed! In addition to Travon, the hotel is brand new, the rooms are great, and the price is right!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r460882457-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>460882457</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>FI Downtown Denver</t>
+  </si>
+  <si>
+    <t>Stayed one night 10/11 Feb before flying out of DIA. Recently built, awesome, very clean and comfortable. Check in was a breeze and attentive staff. Standard gym with aerobic machines and dumbbells. Heated pool but no Jacuzzi. 1 mile walk to downtown or 32nd Ave with amazing little restaurants all around. Plenty of street parking to avoid the additional $12. Easy on/off I-25, 25 mins to airport, non rush hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager  at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night 10/11 Feb before flying out of DIA. Recently built, awesome, very clean and comfortable. Check in was a breeze and attentive staff. Standard gym with aerobic machines and dumbbells. Heated pool but no Jacuzzi. 1 mile walk to downtown or 32nd Ave with amazing little restaurants all around. Plenty of street parking to avoid the additional $12. Easy on/off I-25, 25 mins to airport, non rush hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r460059437-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>460059437</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Better service than the Ritz!</t>
+  </si>
+  <si>
+    <t>After traveling for the last few months, I can confidently say that this was the most enjoyable hotel stay we've had. From the nice gentleman helping out with parking, to the kind woman working at the breakfast station, and the super welcoming receptionist. Travon made our check in quick, hassle free, and actually enjoyable! I think everyone needs a little Travon in their life. I would return to this hotel just to see him. Overall our stay was super comfortable and clean with friendly, genuine staff that are super helpful and happy. A very enjoyable and refreshing experience. Thank you Fairfield Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>After traveling for the last few months, I can confidently say that this was the most enjoyable hotel stay we've had. From the nice gentleman helping out with parking, to the kind woman working at the breakfast station, and the super welcoming receptionist. Travon made our check in quick, hassle free, and actually enjoyable! I think everyone needs a little Travon in their life. I would return to this hotel just to see him. Overall our stay was super comfortable and clean with friendly, genuine staff that are super helpful and happy. A very enjoyable and refreshing experience. Thank you Fairfield Inn!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r458727257-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1065,6 +1686,48 @@
     <t>Modern, contemporary design with covered parking and lovely lobby really welcomes you! Excellent location, helpful staff and nice amenities. It features an indoor pool, fitness center, outdoor patio area and continental breakfast. Loved it!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r457110953-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>457110953</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great everything </t>
+  </si>
+  <si>
+    <t>Awesome hotel. Customer service, amenities &amp; location is everything! If you enjoy walking, there's a 15 min walk to the Sports Authority stadium or the Aquarium.  You can also walk downtown in 15 min.  In the neighborhood there are a lot of quaint salons, restaurants and bars; all in walking distance.  The hotel does not offer a shuttle but there are a lot of amenities. The gym has updated equipment and the pool is very relaxing.  The lobby is soothing with a gorgeous array of comfortable furniture &amp; fireplace.  The hotel offers a complimentary delicious breakfast.  The staff are all knowledgeable about the city &amp; events.  My favorite staff Travon, his energy was invigorating! His knowledge about the offered amenities &amp; things to do in Denver made me want to see it all and not sleep. This is a new hotel so there is some construction in the area.  So if you visit, pay attention to the positive offerings of your stay please. MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, General Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel. Customer service, amenities &amp; location is everything! If you enjoy walking, there's a 15 min walk to the Sports Authority stadium or the Aquarium.  You can also walk downtown in 15 min.  In the neighborhood there are a lot of quaint salons, restaurants and bars; all in walking distance.  The hotel does not offer a shuttle but there are a lot of amenities. The gym has updated equipment and the pool is very relaxing.  The lobby is soothing with a gorgeous array of comfortable furniture &amp; fireplace.  The hotel offers a complimentary delicious breakfast.  The staff are all knowledgeable about the city &amp; events.  My favorite staff Travon, his energy was invigorating! His knowledge about the offered amenities &amp; things to do in Denver made me want to see it all and not sleep. This is a new hotel so there is some construction in the area.  So if you visit, pay attention to the positive offerings of your stay please. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r454551206-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>454551206</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>The quality and newness of this hotel definitely makes up for the distance from downtown. This is a brand new hotel with a gorgeous lobby, attached parking, and fantastic rooms. The rooms at this hotel are much better than some of the Marriot's other properties downtown. They are big, and brand new with awesome amenities like a huge shower, Keurig, and a mart TV with Netflix. The price is also a killer deal. I would definitely pick this over some outdated properties downtown and just Uber to wherever I needed to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>The quality and newness of this hotel definitely makes up for the distance from downtown. This is a brand new hotel with a gorgeous lobby, attached parking, and fantastic rooms. The rooms at this hotel are much better than some of the Marriot's other properties downtown. They are big, and brand new with awesome amenities like a huge shower, Keurig, and a mart TV with Netflix. The price is also a killer deal. I would definitely pick this over some outdated properties downtown and just Uber to wherever I needed to go.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r451897336-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1131,6 +1794,51 @@
     <t>My wife and I stayed here for NYE and to see the Raiders Broncos game. This hotel is located in a safe neighborhood and is within walking distance of several restaurants, spas, etc. The interior of the hotel is immaculate, everything is brand new and they work hard to keep it clean. Our room was the same, spacious, clean, and affordable. The front desk worker (I wish I remembered his name) was extremely helpful and efficient, helping us secure our luggage and giving us a late check out due to our flight. Did not get to check out the indoor pool but I saw somepeople heading down there. We definitely enjoyed our stay in Denver at the Fairfield Inn! Almost forgot to mention the view of the Denver downtown skyline from the hill the hotel sits on! Awesome! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r448967913-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>448967913</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Great for walking downtown or to a nfl game</t>
+  </si>
+  <si>
+    <t>Stayed here new years eve with a groupof friends. Nice rooms, comfy beds and pullout couch.  They originally gave us a room with only one bed, even tho we reserved 2 beds. They ended up just giving us another room, which worked out great. We walked to 16th st for NYE and a broncos game for new years dayMoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, Sales at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here new years eve with a groupof friends. Nice rooms, comfy beds and pullout couch.  They originally gave us a room with only one bed, even tho we reserved 2 beds. They ended up just giving us another room, which worked out great. We walked to 16th st for NYE and a broncos game for new years dayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r448368846-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>448368846</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel and Staff</t>
+  </si>
+  <si>
+    <t>From the moment we pulled up the staff was just amazing. The hotel is wonderfully decorated and clean. The room is spacious and welcoming. We felt like part of the family during our 5 night stay over NYE! Breakfast was great! My girls loved the muffins and yogurt! The view from the hotel of downtown is amazing! You are also in the perfect spot if you are coming to a Nuggets, Broncos, or Avalanche game as both stadiums are close. MoreShow less</t>
+  </si>
+  <si>
+    <t>FairfieldStaff, General Manager at Fairfield Inn by Marriott Denver Downtown, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>From the moment we pulled up the staff was just amazing. The hotel is wonderfully decorated and clean. The room is spacious and welcoming. We felt like part of the family during our 5 night stay over NYE! Breakfast was great! My girls loved the muffins and yogurt! The view from the hotel of downtown is amazing! You are also in the perfect spot if you are coming to a Nuggets, Broncos, or Avalanche game as both stadiums are close. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r446151960-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1206,6 +1914,48 @@
     <t>Stayed here one night and all was good, very quiet.  Large room though felt like something was missing, between the bed and the window there was just a large empty spaces - seems like ususally there is a chair or a table or something in that space. Big bathroom. Lots of outlets is always a plus. Immediate freeway access but no freeway noise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r439286176-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>439286176</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>What a fantastic, brand new hotel.  The hotel sits in my favorite neighborhood in the city.  There are so many wonderful restaurants and shops within a few blocks of the hotel.  The room itself was flawlessly clean, I could literally eat off the bathroom floor.  The beds are the super comfy Marriott beds, and this one did not disappoint either.  The room really allowed me to spread out and get work done, it was very spacious.  In addition to all of this was my view of the beautiful skyline of Denver.  Wow!  Seeing the sunrise over the city was something I enjoyed each morning.  The staff was gracious from the valet to the front desk  to everyone I interacted with.  Overall, I would give my stay a unanimous 5 stars.  I can't wait to stay at this hotel again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>What a fantastic, brand new hotel.  The hotel sits in my favorite neighborhood in the city.  There are so many wonderful restaurants and shops within a few blocks of the hotel.  The room itself was flawlessly clean, I could literally eat off the bathroom floor.  The beds are the super comfy Marriott beds, and this one did not disappoint either.  The room really allowed me to spread out and get work done, it was very spacious.  In addition to all of this was my view of the beautiful skyline of Denver.  Wow!  Seeing the sunrise over the city was something I enjoyed each morning.  The staff was gracious from the valet to the front desk  to everyone I interacted with.  Overall, I would give my stay a unanimous 5 stars.  I can't wait to stay at this hotel again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r438525123-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>438525123</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t>Spent only about 5 hours at the hotel but it looked brand new.  Maybe the first guest to stay in the room?  Very nice property in a good location.  The Fairfield brand is doing a good job with design and really like the internet TV option to watch netflix.  Would recommend for all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Spent only about 5 hours at the hotel but it looked brand new.  Maybe the first guest to stay in the room?  Very nice property in a good location.  The Fairfield brand is doing a good job with design and really like the internet TV option to watch netflix.  Would recommend for all.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r433982680-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1224,9 +1974,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Management response:Responded November 3, 2016</t>
   </si>
   <si>
@@ -1278,6 +2025,45 @@
     <t>First time in Denver.  Hotel is located on perimeter of downtown area so navigation is fairly easy.  Rooms are clean, relatively quiet for location, and service was good.  The only drawback is the massive amount of construction in the area.  Had to be dropped off at the corner and walk to the hotel.  book a higher floor with a city view.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r427379128-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427379128</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>This is a really nice brand new hotel that is centrally located.  We were here for a wedding, and it was perfect.  The room was super nice, clean, and quiet.   The only downside I would say is the lack of parking.  Instead, to valet, it is $18 a day.  The people that work at the valet desk were super nice, as well as the woman at check in.  I wouldn't hesitate to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>This is a really nice brand new hotel that is centrally located.  We were here for a wedding, and it was perfect.  The room was super nice, clean, and quiet.   The only downside I would say is the lack of parking.  Instead, to valet, it is $18 a day.  The people that work at the valet desk were super nice, as well as the woman at check in.  I wouldn't hesitate to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r427205025-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427205025</t>
+  </si>
+  <si>
+    <t>Excellent location</t>
+  </si>
+  <si>
+    <t>Stayed here with all our wedding guests the week the hotel opened. Great location to downtown. Super friendly staff. Close to downtown but even closer to 32 Street. Walking distance to Union Station. Beautiful view of downtown while your have breakfast. View of the mountains from exercise room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here with all our wedding guests the week the hotel opened. Great location to downtown. Super friendly staff. Close to downtown but even closer to 32 Street. Walking distance to Union Station. Beautiful view of downtown while your have breakfast. View of the mountains from exercise room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d119948-r427081779-Fairfield_Inn_by_Marriott_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1291,12 +2077,6 @@
   </si>
   <si>
     <t>As a frequent traveler to Denver, I was waiting for this spot to open. Unless you are planning ahead, downtown is super pricey. Located just the other side of downtown, this spot offers great access to I-25 (you even have a view of the heavy traffic!).  The area surrounding it-especially 32nd-has some great bars and restaurants. Highly recommend!MoreShow less</t>
-  </si>
-  <si>
-    <t>Management response:Responded October 13, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 13, 2016</t>
   </si>
   <si>
     <t>As a frequent traveler to Denver, I was waiting for this spot to open. Unless you are planning ahead, downtown is super pricey. Located just the other side of downtown, this spot offers great access to I-25 (you even have a view of the heavy traffic!).  The area surrounding it-especially 32nd-has some great bars and restaurants. Highly recommend!More</t>
@@ -1834,7 +2614,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1851,10 +2631,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1870,7 +2654,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1879,25 +2663,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1915,7 +2699,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1931,7 +2715,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1940,25 +2724,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1969,10 +2753,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1988,7 +2776,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1997,25 +2785,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2027,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2049,7 +2837,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2058,25 +2846,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2088,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2110,7 +2898,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2119,43 +2907,47 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2171,7 +2963,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2180,25 +2972,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2210,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2232,7 +3024,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2241,43 +3033,47 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="X9" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2293,7 +3089,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2302,22 +3098,26 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2328,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s">
         <v>111</v>
@@ -2371,31 +3171,35 @@
         <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2411,56 +3215,48 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>122</v>
       </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2476,58 +3272,52 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>128</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>129</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>130</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>131</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
         <v>132</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -2543,31 +3333,31 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>134</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>135</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>136</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>137</v>
       </c>
-      <c r="L14" t="s">
-        <v>138</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
@@ -2582,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2604,58 +3394,52 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>143</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>123</v>
+      </c>
+      <c r="X15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y15" t="s">
         <v>145</v>
-      </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2671,58 +3455,52 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
         <v>148</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>149</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>150</v>
       </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" t="s">
-        <v>152</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -2738,34 +3516,34 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
         <v>157</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>158</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>159</v>
       </c>
-      <c r="K17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>162</v>
-      </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2781,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
@@ -2803,53 +3581,49 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
         <v>166</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>167</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>168</v>
       </c>
-      <c r="K18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" t="s">
-        <v>170</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>162</v>
-      </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Y18" t="s">
         <v>171</v>
@@ -2889,35 +3663,31 @@
         <v>176</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
         <v>52</v>
       </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
         <v>177</v>
-      </c>
-      <c r="X19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -2933,58 +3703,48 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
         <v>180</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>181</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>182</v>
       </c>
-      <c r="K20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" t="s">
-        <v>184</v>
-      </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20" t="s">
-        <v>59</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
         <v>185</v>
-      </c>
-      <c r="X20" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -3000,43 +3760,43 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
         <v>188</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>189</v>
       </c>
-      <c r="J21" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>190</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>191</v>
       </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>162</v>
-      </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -3045,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s">
         <v>192</v>
@@ -3088,31 +3848,33 @@
         <v>197</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
       </c>
-      <c r="P22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>198</v>
-      </c>
-      <c r="X22" t="s">
-        <v>199</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -3128,58 +3890,52 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
         <v>201</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>202</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>203</v>
-      </c>
-      <c r="K23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" t="s">
-        <v>205</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>206</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="X23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -3195,40 +3951,38 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
         <v>210</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>211</v>
       </c>
-      <c r="J24" t="s">
-        <v>212</v>
-      </c>
-      <c r="K24" t="s">
-        <v>213</v>
-      </c>
-      <c r="L24" t="s">
-        <v>214</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>5</v>
       </c>
@@ -3240,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -3262,52 +4016,58 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>218</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s">
         <v>219</v>
-      </c>
-      <c r="J25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K25" t="s">
-        <v>221</v>
-      </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>206</v>
-      </c>
-      <c r="O25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
-        <v>223</v>
-      </c>
-      <c r="X25" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -3323,52 +4083,54 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
         <v>225</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>226</v>
-      </c>
-      <c r="J26" t="s">
-        <v>227</v>
-      </c>
-      <c r="K26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" t="s">
-        <v>229</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>206</v>
-      </c>
-      <c r="O26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>215</v>
-      </c>
-      <c r="X26" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -3384,7 +4146,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3393,47 +4155,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
         <v>52</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -3449,7 +4207,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3458,47 +4216,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="X28" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
@@ -3514,7 +4268,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3523,47 +4277,49 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="X29" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -3579,7 +4335,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3588,32 +4344,34 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3622,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -3644,7 +4402,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3653,43 +4411,49 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
@@ -3705,7 +4469,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3714,25 +4478,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3744,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
@@ -3766,7 +4530,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3775,33 +4539,31 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3811,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Y33" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -3833,7 +4595,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3842,34 +4604,32 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3878,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
@@ -3900,7 +4660,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3909,39 +4669,47 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
+      <c r="N35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="X35" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y35" t="s">
         <v>288</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="36">
@@ -3957,7 +4725,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3966,34 +4734,34 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>310</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4002,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="X36" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -4024,7 +4792,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4033,47 +4801,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
@@ -4089,7 +4853,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4098,43 +4862,49 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="X38" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
@@ -4150,7 +4920,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4159,32 +4929,32 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" t="n">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
@@ -4195,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="X39" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
@@ -4217,7 +4987,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4226,49 +4996,43 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="X40" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
@@ -4284,7 +5048,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4293,25 +5057,25 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4323,13 +5087,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="X41" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
@@ -4345,7 +5109,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4354,22 +5118,22 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s">
         <v>52</v>
@@ -4377,24 +5141,20 @@
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
@@ -4410,7 +5170,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4419,43 +5179,49 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="X43" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="Y43" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
@@ -4471,7 +5237,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4480,43 +5246,49 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="X44" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
@@ -4532,7 +5304,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4541,22 +5313,26 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="N45" t="s">
+        <v>327</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
@@ -4567,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="X45" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="Y45" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46">
@@ -4589,7 +5365,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4598,34 +5374,34 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4634,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
@@ -4656,7 +5432,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4665,47 +5441,47 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="O47" t="s">
-        <v>396</v>
+        <v>68</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="X47" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
@@ -4721,7 +5497,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4730,22 +5506,22 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="J48" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s">
         <v>52</v>
@@ -4760,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="X48" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49">
@@ -4782,7 +5558,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4791,49 +5567,47 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="X49" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="Y49" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
@@ -4849,7 +5623,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4858,43 +5632,2465 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="J50" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
+        <v>393</v>
+      </c>
+      <c r="X50" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s">
+        <v>400</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>401</v>
+      </c>
+      <c r="O51" t="s">
+        <v>104</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>402</v>
+      </c>
+      <c r="X51" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" t="s">
+        <v>406</v>
+      </c>
+      <c r="K52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" t="s">
+        <v>408</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>392</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>409</v>
+      </c>
+      <c r="X52" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>417</v>
+      </c>
+      <c r="O53" t="s">
+        <v>104</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>418</v>
+      </c>
+      <c r="X53" t="s">
         <v>419</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y53" t="s">
         <v>420</v>
       </c>
-      <c r="Y50" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
         <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>422</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>426</v>
+      </c>
+      <c r="X54" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" t="s">
+        <v>431</v>
+      </c>
+      <c r="K55" t="s">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>426</v>
+      </c>
+      <c r="X55" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J56" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>401</v>
+      </c>
+      <c r="O56" t="s">
+        <v>104</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>440</v>
+      </c>
+      <c r="X56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>401</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>448</v>
+      </c>
+      <c r="X57" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" t="s">
+        <v>453</v>
+      </c>
+      <c r="K58" t="s">
+        <v>454</v>
+      </c>
+      <c r="L58" t="s">
+        <v>455</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>456</v>
+      </c>
+      <c r="X58" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>460</v>
+      </c>
+      <c r="J59" t="s">
+        <v>461</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s">
+        <v>463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>464</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>473</v>
+      </c>
+      <c r="X60" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" t="s">
+        <v>477</v>
+      </c>
+      <c r="K61" t="s">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s">
+        <v>479</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>480</v>
+      </c>
+      <c r="X61" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>464</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>465</v>
+      </c>
+      <c r="X62" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>489</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>490</v>
+      </c>
+      <c r="J63" t="s">
+        <v>491</v>
+      </c>
+      <c r="K63" t="s">
+        <v>492</v>
+      </c>
+      <c r="L63" t="s">
+        <v>493</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>494</v>
+      </c>
+      <c r="X63" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>497</v>
+      </c>
+      <c r="J64" t="s">
+        <v>498</v>
+      </c>
+      <c r="K64" t="s">
+        <v>499</v>
+      </c>
+      <c r="L64" t="s">
+        <v>500</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>501</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>502</v>
+      </c>
+      <c r="X64" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>505</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>506</v>
+      </c>
+      <c r="J65" t="s">
+        <v>507</v>
+      </c>
+      <c r="K65" t="s">
+        <v>508</v>
+      </c>
+      <c r="L65" t="s">
+        <v>509</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>501</v>
+      </c>
+      <c r="O65" t="s">
+        <v>104</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>510</v>
+      </c>
+      <c r="X65" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>512</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>513</v>
+      </c>
+      <c r="J66" t="s">
+        <v>514</v>
+      </c>
+      <c r="K66" t="s">
+        <v>515</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>501</v>
+      </c>
+      <c r="O66" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>517</v>
+      </c>
+      <c r="X66" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>521</v>
+      </c>
+      <c r="J67" t="s">
+        <v>522</v>
+      </c>
+      <c r="K67" t="s">
+        <v>523</v>
+      </c>
+      <c r="L67" t="s">
+        <v>524</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>525</v>
+      </c>
+      <c r="X67" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>529</v>
+      </c>
+      <c r="J68" t="s">
+        <v>530</v>
+      </c>
+      <c r="K68" t="s">
+        <v>531</v>
+      </c>
+      <c r="L68" t="s">
+        <v>532</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>501</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>533</v>
+      </c>
+      <c r="X68" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>536</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" t="s">
+        <v>530</v>
+      </c>
+      <c r="K69" t="s">
+        <v>538</v>
+      </c>
+      <c r="L69" t="s">
+        <v>539</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>501</v>
+      </c>
+      <c r="O69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>540</v>
+      </c>
+      <c r="X69" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>542</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" t="s">
+        <v>544</v>
+      </c>
+      <c r="K70" t="s">
+        <v>545</v>
+      </c>
+      <c r="L70" t="s">
+        <v>546</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>417</v>
+      </c>
+      <c r="O70" t="s">
+        <v>68</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>547</v>
+      </c>
+      <c r="X70" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>550</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>551</v>
+      </c>
+      <c r="J71" t="s">
+        <v>552</v>
+      </c>
+      <c r="K71" t="s">
+        <v>553</v>
+      </c>
+      <c r="L71" t="s">
+        <v>554</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>417</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>555</v>
+      </c>
+      <c r="X71" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>559</v>
+      </c>
+      <c r="J72" t="s">
+        <v>560</v>
+      </c>
+      <c r="K72" t="s">
+        <v>561</v>
+      </c>
+      <c r="L72" t="s">
+        <v>562</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>417</v>
+      </c>
+      <c r="O72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>533</v>
+      </c>
+      <c r="X72" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" t="s">
+        <v>567</v>
+      </c>
+      <c r="L73" t="s">
+        <v>568</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>417</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>569</v>
+      </c>
+      <c r="X73" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>572</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+      <c r="J74" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s">
+        <v>575</v>
+      </c>
+      <c r="L74" t="s">
+        <v>576</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>417</v>
+      </c>
+      <c r="O74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>569</v>
+      </c>
+      <c r="X74" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>578</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>579</v>
+      </c>
+      <c r="J75" t="s">
+        <v>574</v>
+      </c>
+      <c r="K75" t="s">
+        <v>580</v>
+      </c>
+      <c r="L75" t="s">
+        <v>581</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>582</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>583</v>
+      </c>
+      <c r="X75" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>586</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>587</v>
+      </c>
+      <c r="J76" t="s">
+        <v>588</v>
+      </c>
+      <c r="K76" t="s">
+        <v>589</v>
+      </c>
+      <c r="L76" t="s">
+        <v>590</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>582</v>
+      </c>
+      <c r="O76" t="s">
+        <v>294</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>591</v>
+      </c>
+      <c r="X76" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>594</v>
+      </c>
+      <c r="J77" t="s">
+        <v>595</v>
+      </c>
+      <c r="K77" t="s">
+        <v>596</v>
+      </c>
+      <c r="L77" t="s">
+        <v>597</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>582</v>
+      </c>
+      <c r="O77" t="s">
+        <v>68</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>598</v>
+      </c>
+      <c r="X77" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>601</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>602</v>
+      </c>
+      <c r="J78" t="s">
+        <v>603</v>
+      </c>
+      <c r="K78" t="s">
+        <v>604</v>
+      </c>
+      <c r="L78" t="s">
+        <v>605</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>582</v>
+      </c>
+      <c r="O78" t="s">
+        <v>68</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>606</v>
+      </c>
+      <c r="X78" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>609</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>610</v>
+      </c>
+      <c r="J79" t="s">
+        <v>611</v>
+      </c>
+      <c r="K79" t="s">
+        <v>612</v>
+      </c>
+      <c r="L79" t="s">
+        <v>613</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>614</v>
+      </c>
+      <c r="X79" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>619</v>
+      </c>
+      <c r="K80" t="s">
+        <v>620</v>
+      </c>
+      <c r="L80" t="s">
+        <v>621</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>622</v>
+      </c>
+      <c r="O80" t="s">
+        <v>104</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>623</v>
+      </c>
+      <c r="X80" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>626</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>627</v>
+      </c>
+      <c r="J81" t="s">
+        <v>628</v>
+      </c>
+      <c r="K81" t="s">
+        <v>629</v>
+      </c>
+      <c r="L81" t="s">
+        <v>630</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>622</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>623</v>
+      </c>
+      <c r="X81" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>632</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>633</v>
+      </c>
+      <c r="J82" t="s">
+        <v>634</v>
+      </c>
+      <c r="K82" t="s">
+        <v>635</v>
+      </c>
+      <c r="L82" t="s">
+        <v>636</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>622</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>637</v>
+      </c>
+      <c r="X82" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>640</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>641</v>
+      </c>
+      <c r="J83" t="s">
+        <v>642</v>
+      </c>
+      <c r="K83" t="s">
+        <v>643</v>
+      </c>
+      <c r="L83" t="s">
+        <v>644</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>645</v>
+      </c>
+      <c r="O83" t="s">
+        <v>294</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>646</v>
+      </c>
+      <c r="X83" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>650</v>
+      </c>
+      <c r="J84" t="s">
+        <v>651</v>
+      </c>
+      <c r="K84" t="s">
+        <v>652</v>
+      </c>
+      <c r="L84" t="s">
+        <v>653</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>645</v>
+      </c>
+      <c r="O84" t="s">
+        <v>68</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>646</v>
+      </c>
+      <c r="X84" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" t="s">
+        <v>658</v>
+      </c>
+      <c r="L85" t="s">
+        <v>659</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>645</v>
+      </c>
+      <c r="O85" t="s">
+        <v>104</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>660</v>
+      </c>
+      <c r="X85" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>663</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>664</v>
+      </c>
+      <c r="J86" t="s">
+        <v>665</v>
+      </c>
+      <c r="K86" t="s">
+        <v>666</v>
+      </c>
+      <c r="L86" t="s">
+        <v>667</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>645</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>668</v>
+      </c>
+      <c r="X86" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>671</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>672</v>
+      </c>
+      <c r="J87" t="s">
+        <v>665</v>
+      </c>
+      <c r="K87" t="s">
+        <v>673</v>
+      </c>
+      <c r="L87" t="s">
+        <v>674</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>645</v>
+      </c>
+      <c r="O87" t="s">
+        <v>68</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>668</v>
+      </c>
+      <c r="X87" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64214</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>676</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>677</v>
+      </c>
+      <c r="J88" t="s">
+        <v>678</v>
+      </c>
+      <c r="K88" t="s">
+        <v>679</v>
+      </c>
+      <c r="L88" t="s">
+        <v>680</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>645</v>
+      </c>
+      <c r="O88" t="s">
+        <v>104</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>668</v>
+      </c>
+      <c r="X88" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
